--- a/Documents/tableau_de_données.xlsx
+++ b/Documents/tableau_de_données.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="157">
   <si>
     <t>Entités</t>
   </si>
@@ -495,6 +495,9 @@
   </si>
   <si>
     <t>cheminDevis</t>
+  </si>
+  <si>
+    <t>DateTime</t>
   </si>
 </sst>
 </file>
@@ -995,92 +998,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1093,29 +1024,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1123,32 +1039,38 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1161,10 +1083,91 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1449,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1477,7 +1480,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="141" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1491,7 +1494,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
+      <c r="A4" s="142"/>
       <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
@@ -1503,7 +1506,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="142"/>
       <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
@@ -1515,7 +1518,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
+      <c r="A6" s="143"/>
       <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
@@ -1528,7 +1531,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="144" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -1542,7 +1545,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
+      <c r="A10" s="145"/>
       <c r="B10" s="20" t="s">
         <v>21</v>
       </c>
@@ -1555,7 +1558,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="146" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -1569,7 +1572,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+      <c r="A13" s="147"/>
       <c r="B13" s="26" t="s">
         <v>29</v>
       </c>
@@ -1581,7 +1584,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="26" t="s">
         <v>30</v>
       </c>
@@ -1593,7 +1596,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
+      <c r="A15" s="147"/>
       <c r="B15" s="26" t="s">
         <v>32</v>
       </c>
@@ -1605,7 +1608,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="66"/>
+      <c r="A16" s="148"/>
       <c r="B16" s="28" t="s">
         <v>31</v>
       </c>
@@ -1620,7 +1623,7 @@
       <c r="A17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="131" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -1634,7 +1637,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="34" t="s">
         <v>38</v>
       </c>
@@ -1646,7 +1649,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="34" t="s">
         <v>39</v>
       </c>
@@ -1658,7 +1661,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="34" t="s">
         <v>40</v>
       </c>
@@ -1670,7 +1673,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="34" t="s">
         <v>44</v>
       </c>
@@ -1678,11 +1681,11 @@
         <v>48</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="34" t="s">
         <v>43</v>
       </c>
@@ -1694,7 +1697,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="34" t="s">
         <v>42</v>
       </c>
@@ -1706,7 +1709,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="69"/>
+      <c r="A25" s="133"/>
       <c r="B25" s="36" t="s">
         <v>41</v>
       </c>
@@ -1719,7 +1722,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="134" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="39" t="s">
@@ -1733,7 +1736,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="71"/>
+      <c r="A28" s="135"/>
       <c r="B28" s="42" t="s">
         <v>56</v>
       </c>
@@ -1746,7 +1749,7 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="136" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="45" t="s">
@@ -1760,7 +1763,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="73"/>
+      <c r="A31" s="137"/>
       <c r="B31" s="48" t="s">
         <v>62</v>
       </c>
@@ -1773,7 +1776,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="128" t="s">
         <v>63</v>
       </c>
       <c r="B33" s="51" t="s">
@@ -1787,7 +1790,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="75"/>
+      <c r="A34" s="129"/>
       <c r="B34" s="54" t="s">
         <v>65</v>
       </c>
@@ -1799,7 +1802,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="76"/>
+      <c r="A35" s="130"/>
       <c r="B35" s="56" t="s">
         <v>66</v>
       </c>
@@ -1812,157 +1815,157 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="83" t="s">
+      <c r="A37" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="79" t="s">
+      <c r="D37" s="61" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
-      <c r="B38" s="87" t="s">
+      <c r="A38" s="139"/>
+      <c r="B38" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="77" t="s">
+      <c r="C38" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="80" t="s">
+      <c r="D38" s="62" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
-      <c r="B39" s="87" t="s">
+      <c r="A39" s="139"/>
+      <c r="B39" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="77" t="s">
+      <c r="C39" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="80" t="s">
+      <c r="D39" s="62" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
-      <c r="B40" s="87" t="s">
+      <c r="A40" s="139"/>
+      <c r="B40" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="77" t="s">
+      <c r="C40" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="D40" s="80" t="s">
+      <c r="D40" s="62" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
-      <c r="B41" s="87" t="s">
+      <c r="A41" s="139"/>
+      <c r="B41" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="77" t="s">
+      <c r="C41" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="D41" s="80" t="s">
+      <c r="D41" s="62" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="85"/>
-      <c r="B42" s="88" t="s">
+      <c r="A42" s="140"/>
+      <c r="B42" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="81" t="s">
+      <c r="C42" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="D42" s="82" t="s">
+      <c r="D42" s="64" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="109" t="s">
+      <c r="A44" s="120" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="110" t="s">
+      <c r="B44" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="111" t="s">
+      <c r="C44" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="112" t="s">
+      <c r="D44" s="87" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="113"/>
-      <c r="B45" s="114" t="s">
+      <c r="A45" s="121"/>
+      <c r="B45" s="88" t="s">
         <v>85</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="115" t="s">
+      <c r="D45" s="89" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="113"/>
-      <c r="B46" s="114" t="s">
+      <c r="A46" s="121"/>
+      <c r="B46" s="88" t="s">
         <v>86</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D46" s="115" t="s">
+      <c r="D46" s="89" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="113"/>
-      <c r="B47" s="114" t="s">
+      <c r="A47" s="121"/>
+      <c r="B47" s="88" t="s">
         <v>87</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="115" t="s">
+      <c r="D47" s="89" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="113"/>
-      <c r="B48" s="114" t="s">
+      <c r="A48" s="121"/>
+      <c r="B48" s="88" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="115" t="s">
+      <c r="D48" s="89" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="116"/>
-      <c r="B49" s="117" t="s">
+      <c r="A49" s="122"/>
+      <c r="B49" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="118" t="s">
+      <c r="C49" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="119" t="s">
+      <c r="D49" s="92" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="120" t="s">
+      <c r="A51" s="123" t="s">
         <v>93</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -1976,7 +1979,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="121"/>
+      <c r="A52" s="124"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -1989,106 +1992,106 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="89" t="s">
+      <c r="A54" s="125" t="s">
         <v>113</v>
       </c>
-      <c r="B54" s="90" t="s">
+      <c r="B54" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="91" t="s">
+      <c r="C54" s="69" t="s">
         <v>104</v>
       </c>
-      <c r="D54" s="92" t="s">
+      <c r="D54" s="70" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="93"/>
-      <c r="B55" s="94" t="s">
+      <c r="A55" s="126"/>
+      <c r="B55" s="71" t="s">
         <v>97</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="95" t="s">
+      <c r="D55" s="72" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="93"/>
-      <c r="B56" s="94" t="s">
+      <c r="A56" s="126"/>
+      <c r="B56" s="71" t="s">
         <v>98</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="95" t="s">
+      <c r="D56" s="72" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="93"/>
-      <c r="B57" s="94" t="s">
+      <c r="A57" s="126"/>
+      <c r="B57" s="71" t="s">
         <v>99</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D57" s="95" t="s">
+      <c r="D57" s="72" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="93"/>
-      <c r="B58" s="94" t="s">
+      <c r="A58" s="126"/>
+      <c r="B58" s="71" t="s">
         <v>100</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D58" s="95" t="s">
+      <c r="D58" s="72" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="93"/>
-      <c r="B59" s="94" t="s">
+      <c r="A59" s="126"/>
+      <c r="B59" s="71" t="s">
         <v>101</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="95" t="s">
+      <c r="D59" s="72" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="93"/>
-      <c r="B60" s="94" t="s">
+      <c r="A60" s="126"/>
+      <c r="B60" s="71" t="s">
         <v>102</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="95" t="s">
+      <c r="D60" s="72" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="96"/>
-      <c r="B61" s="97" t="s">
+      <c r="A61" s="127"/>
+      <c r="B61" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="98" t="s">
+      <c r="C61" s="74" t="s">
         <v>110</v>
       </c>
-      <c r="D61" s="99" t="s">
+      <c r="D61" s="75" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="120" t="s">
+      <c r="A63" s="123" t="s">
         <v>114</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -2102,7 +2105,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="121"/>
+      <c r="A64" s="124"/>
       <c r="B64" s="14" t="s">
         <v>17</v>
       </c>
@@ -2115,10 +2118,10 @@
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="74" t="s">
+      <c r="A66" s="128" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="124" t="s">
+      <c r="B66" s="95" t="s">
         <v>118</v>
       </c>
       <c r="C66" s="52" t="s">
@@ -2129,8 +2132,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="75"/>
-      <c r="B67" s="123" t="s">
+      <c r="A67" s="129"/>
+      <c r="B67" s="94" t="s">
         <v>124</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -2141,8 +2144,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="75"/>
-      <c r="B68" s="123" t="s">
+      <c r="A68" s="129"/>
+      <c r="B68" s="94" t="s">
         <v>125</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -2153,8 +2156,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="75"/>
-      <c r="B69" s="123" t="s">
+      <c r="A69" s="129"/>
+      <c r="B69" s="94" t="s">
         <v>126</v>
       </c>
       <c r="C69" s="8" t="s">
@@ -2165,8 +2168,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="75"/>
-      <c r="B70" s="123" t="s">
+      <c r="A70" s="129"/>
+      <c r="B70" s="94" t="s">
         <v>127</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -2177,8 +2180,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="76"/>
-      <c r="B71" s="125" t="s">
+      <c r="A71" s="130"/>
+      <c r="B71" s="96" t="s">
         <v>128</v>
       </c>
       <c r="C71" s="57" t="s">
@@ -2190,112 +2193,112 @@
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="129" t="s">
+      <c r="A73" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="126" t="s">
+      <c r="B73" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="C73" s="126" t="s">
+      <c r="C73" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="D73" s="106" t="s">
+      <c r="D73" s="82" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="130"/>
-      <c r="B74" s="127" t="s">
+      <c r="A74" s="109"/>
+      <c r="B74" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="C74" s="127" t="s">
+      <c r="C74" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="D74" s="107" t="s">
+      <c r="D74" s="83" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="131"/>
-      <c r="B75" s="128" t="s">
+      <c r="A75" s="110"/>
+      <c r="B75" s="99" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="128" t="s">
+      <c r="C75" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="D75" s="108" t="s">
+      <c r="D75" s="84" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="147" t="s">
+      <c r="A77" s="111" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="110" t="s">
+      <c r="B77" s="85" t="s">
         <v>140</v>
       </c>
-      <c r="C77" s="111" t="s">
+      <c r="C77" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="D77" s="112" t="s">
+      <c r="D77" s="87" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="148"/>
-      <c r="B78" s="117" t="s">
+      <c r="A78" s="112"/>
+      <c r="B78" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="C78" s="118" t="s">
+      <c r="C78" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="119" t="s">
+      <c r="D78" s="92" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="132" t="s">
+      <c r="A80" s="113" t="s">
         <v>138</v>
       </c>
-      <c r="B80" s="133" t="s">
+      <c r="B80" s="100" t="s">
         <v>141</v>
       </c>
-      <c r="C80" s="134" t="s">
+      <c r="C80" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="D80" s="135" t="s">
+      <c r="D80" s="102" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="136"/>
-      <c r="B81" s="137" t="s">
+      <c r="A81" s="114"/>
+      <c r="B81" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="C81" s="122" t="s">
+      <c r="C81" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="D81" s="138" t="s">
+      <c r="D81" s="104" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="139"/>
-      <c r="B82" s="140" t="s">
+      <c r="A82" s="115"/>
+      <c r="B82" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="141" t="s">
+      <c r="C82" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="D82" s="142" t="s">
+      <c r="D82" s="107" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="143" t="s">
+      <c r="A84" s="116" t="s">
         <v>147</v>
       </c>
       <c r="B84" s="31" t="s">
@@ -2309,7 +2312,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="144"/>
+      <c r="A85" s="117"/>
       <c r="B85" s="36" t="s">
         <v>148</v>
       </c>
@@ -2322,51 +2325,51 @@
     </row>
     <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="145" t="s">
+      <c r="A87" s="118" t="s">
         <v>152</v>
       </c>
-      <c r="B87" s="100" t="s">
+      <c r="B87" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="C87" s="101" t="s">
+      <c r="C87" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="D87" s="102" t="s">
+      <c r="D87" s="78" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="146"/>
-      <c r="B88" s="103" t="s">
+      <c r="A88" s="119"/>
+      <c r="B88" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="C88" s="104" t="s">
+      <c r="C88" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="D88" s="105" t="s">
+      <c r="D88" s="81" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:A71"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="A77:A78"/>
     <mergeCell ref="A80:A82"/>
     <mergeCell ref="A84:A85"/>
     <mergeCell ref="A87:A88"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A54:A61"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2377,7 +2380,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/Documents/tableau_de_données.xlsx
+++ b/Documents/tableau_de_données.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="289">
   <si>
     <t>Entités</t>
   </si>
@@ -498,13 +498,409 @@
   </si>
   <si>
     <t>DateTime</t>
+  </si>
+  <si>
+    <t>fruit</t>
+  </si>
+  <si>
+    <t>poisson</t>
+  </si>
+  <si>
+    <t>légume</t>
+  </si>
+  <si>
+    <t>viande rouge</t>
+  </si>
+  <si>
+    <t>viande blanche</t>
+  </si>
+  <si>
+    <t>épices</t>
+  </si>
+  <si>
+    <t>assaisonnement</t>
+  </si>
+  <si>
+    <t>produit laitier</t>
+  </si>
+  <si>
+    <t>Vins</t>
+  </si>
+  <si>
+    <t>categoriesProduits</t>
+  </si>
+  <si>
+    <t>Prestation à domicile</t>
+  </si>
+  <si>
+    <t>Je n'ai pas de cuisine équipée veuillez venir avec votre matériel svp.</t>
+  </si>
+  <si>
+    <t>prestation pour un mariage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vous n'avez surement pas besoin de matériel puisque la salle des fêtes est équipée de 4 bruleurs, un frigo etc .. </t>
+  </si>
+  <si>
+    <t>hiver</t>
+  </si>
+  <si>
+    <t>été</t>
+  </si>
+  <si>
+    <t>automne</t>
+  </si>
+  <si>
+    <t>printemps</t>
+  </si>
+  <si>
+    <t>categoriesRecette</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>dupont</t>
+  </si>
+  <si>
+    <t>toto</t>
+  </si>
+  <si>
+    <t>11 bis rue du longchamp</t>
+  </si>
+  <si>
+    <t>QuelquePart</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>beauchamp</t>
+  </si>
+  <si>
+    <t>tutu</t>
+  </si>
+  <si>
+    <t>24 rue de l'église</t>
+  </si>
+  <si>
+    <t>auboutdumonde</t>
+  </si>
+  <si>
+    <t>commandes</t>
+  </si>
+  <si>
+    <t>idUniteDeMesure</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>composition</t>
+  </si>
+  <si>
+    <t>idConversion</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>Conversions</t>
+  </si>
+  <si>
+    <t>./DOCS/DEVIS/Devis1523652.pdf</t>
+  </si>
+  <si>
+    <t>idEtape</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>fondre</t>
+  </si>
+  <si>
+    <t>faire fondre du beurre pendant 1 minute au micro-onde.</t>
+  </si>
+  <si>
+    <t>cuire</t>
+  </si>
+  <si>
+    <t>faire cuire le potiron</t>
+  </si>
+  <si>
+    <t>mixer</t>
+  </si>
+  <si>
+    <t>mixer le potiron avec le beurre et le lait</t>
+  </si>
+  <si>
+    <t>saler/poivrer</t>
+  </si>
+  <si>
+    <t>saler et poivrer la préparation</t>
+  </si>
+  <si>
+    <t>etapes</t>
+  </si>
+  <si>
+    <t>idEtapeRecette</t>
+  </si>
+  <si>
+    <t>ordre</t>
+  </si>
+  <si>
+    <t>etapesRecettes</t>
+  </si>
+  <si>
+    <t>idFacture</t>
+  </si>
+  <si>
+    <t>cheminFacture</t>
+  </si>
+  <si>
+    <t>facture finale</t>
+  </si>
+  <si>
+    <t>./DOCS/FACTURES/Facture02151357</t>
+  </si>
+  <si>
+    <t>./DOCS/FACTURES/Facture02659892</t>
+  </si>
+  <si>
+    <t>./DOCS/FACTURES/Facture026598922</t>
+  </si>
+  <si>
+    <t>Factures</t>
+  </si>
+  <si>
+    <t>fourni1</t>
+  </si>
+  <si>
+    <t>17 rue de la cloche</t>
+  </si>
+  <si>
+    <t>fourni1@fourni1.com</t>
+  </si>
+  <si>
+    <t>Saint-Maurice-Pellevoisin</t>
+  </si>
+  <si>
+    <t>fourni2</t>
+  </si>
+  <si>
+    <t>84 rue nationale</t>
+  </si>
+  <si>
+    <t>fourni2@fourni2.com</t>
+  </si>
+  <si>
+    <t>Armentières</t>
+  </si>
+  <si>
+    <t>prixVenteHT</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>21.5</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>Cheque</t>
+  </si>
+  <si>
+    <t>Espece</t>
+  </si>
+  <si>
+    <t>facture accompte</t>
+  </si>
+  <si>
+    <t>Soupe aux potirons</t>
+  </si>
+  <si>
+    <t>poids</t>
+  </si>
+  <si>
+    <t>muscade</t>
+  </si>
+  <si>
+    <t>sel</t>
+  </si>
+  <si>
+    <t>poivre</t>
+  </si>
+  <si>
+    <t>potiron</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>carotte</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>pomme de terre</t>
+  </si>
+  <si>
+    <t>ail</t>
+  </si>
+  <si>
+    <t>oignon</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>lait</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>huile d'olive</t>
+  </si>
+  <si>
+    <t>Persil</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>Velouté de Potiron et Carottes</t>
+  </si>
+  <si>
+    <t>./IMAGES/RECETTES/veloutecarotte.jpg</t>
+  </si>
+  <si>
+    <t>Une recette qui va ravir vos papilles !&lt;br&gt; Un velouté constitué de carotte de pomme de terre etc .. Vous allez aimé nous en sommes sur !</t>
+  </si>
+  <si>
+    <t>idUniteChoisie</t>
+  </si>
+  <si>
+    <t>idUniteConvertie</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.000001</t>
+  </si>
+  <si>
+    <t>0.00001</t>
+  </si>
+  <si>
+    <t>0.0001</t>
+  </si>
+  <si>
+    <t>idReglement</t>
+  </si>
+  <si>
+    <t>datePaiement</t>
+  </si>
+  <si>
+    <t>Reglements</t>
+  </si>
+  <si>
+    <t>Gerant</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Parfait !</t>
+  </si>
+  <si>
+    <t>on est bien servi !</t>
+  </si>
+  <si>
+    <t>Temoignages</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>DG</t>
+  </si>
+  <si>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>UnitesDeMesure</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>dupont.toto</t>
+  </si>
+  <si>
+    <t>dupont.toto@gmail.com</t>
+  </si>
+  <si>
+    <t>beauchamp.tutu</t>
+  </si>
+  <si>
+    <t>beauchamp.tutu@gmail.com</t>
+  </si>
+  <si>
+    <t>Tout ce qui concerne l'argent</t>
+  </si>
+  <si>
+    <t>Tout ce qui converne la recette</t>
+  </si>
+  <si>
+    <t>Tout ce qui concerne les fournisseus/produits</t>
+  </si>
+  <si>
+    <t>Tout ce qui converne la commande</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,8 +916,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,8 +1008,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -930,11 +1368,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="235">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1047,6 +1537,312 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="15" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="18" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="18" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="16" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="16" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="16" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="20" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,112 +1858,64 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1480,7 +2228,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="174" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1494,7 +2242,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="142"/>
+      <c r="A4" s="175"/>
       <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
@@ -1506,7 +2254,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="142"/>
+      <c r="A5" s="175"/>
       <c r="B5" s="12" t="s">
         <v>6</v>
       </c>
@@ -1518,7 +2266,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="143"/>
+      <c r="A6" s="176"/>
       <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +2279,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="177" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -1545,7 +2293,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="145"/>
+      <c r="A10" s="178"/>
       <c r="B10" s="20" t="s">
         <v>21</v>
       </c>
@@ -1558,7 +2306,7 @@
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="179" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -1572,7 +2320,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="147"/>
+      <c r="A13" s="180"/>
       <c r="B13" s="26" t="s">
         <v>29</v>
       </c>
@@ -1584,7 +2332,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="147"/>
+      <c r="A14" s="180"/>
       <c r="B14" s="26" t="s">
         <v>30</v>
       </c>
@@ -1596,7 +2344,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="147"/>
+      <c r="A15" s="180"/>
       <c r="B15" s="26" t="s">
         <v>32</v>
       </c>
@@ -1608,7 +2356,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="148"/>
+      <c r="A16" s="181"/>
       <c r="B16" s="28" t="s">
         <v>31</v>
       </c>
@@ -1623,7 +2371,7 @@
       <c r="A17" s="4"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="131" t="s">
+      <c r="A18" s="182" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="31" t="s">
@@ -1637,7 +2385,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="132"/>
+      <c r="A19" s="183"/>
       <c r="B19" s="34" t="s">
         <v>38</v>
       </c>
@@ -1649,7 +2397,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="132"/>
+      <c r="A20" s="183"/>
       <c r="B20" s="34" t="s">
         <v>39</v>
       </c>
@@ -1661,7 +2409,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
+      <c r="A21" s="183"/>
       <c r="B21" s="34" t="s">
         <v>40</v>
       </c>
@@ -1673,7 +2421,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="132"/>
+      <c r="A22" s="183"/>
       <c r="B22" s="34" t="s">
         <v>44</v>
       </c>
@@ -1685,7 +2433,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="132"/>
+      <c r="A23" s="183"/>
       <c r="B23" s="34" t="s">
         <v>43</v>
       </c>
@@ -1697,7 +2445,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="132"/>
+      <c r="A24" s="183"/>
       <c r="B24" s="34" t="s">
         <v>42</v>
       </c>
@@ -1709,7 +2457,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="133"/>
+      <c r="A25" s="184"/>
       <c r="B25" s="36" t="s">
         <v>41</v>
       </c>
@@ -1722,7 +2470,7 @@
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="134" t="s">
+      <c r="A27" s="185" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="39" t="s">
@@ -1736,7 +2484,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="135"/>
+      <c r="A28" s="186"/>
       <c r="B28" s="42" t="s">
         <v>56</v>
       </c>
@@ -1749,7 +2497,7 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="136" t="s">
+      <c r="A30" s="187" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="45" t="s">
@@ -1763,7 +2511,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="137"/>
+      <c r="A31" s="188"/>
       <c r="B31" s="48" t="s">
         <v>62</v>
       </c>
@@ -1776,7 +2524,7 @@
     </row>
     <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="128" t="s">
+      <c r="A33" s="189" t="s">
         <v>63</v>
       </c>
       <c r="B33" s="51" t="s">
@@ -1790,7 +2538,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="129"/>
+      <c r="A34" s="190"/>
       <c r="B34" s="54" t="s">
         <v>65</v>
       </c>
@@ -1802,7 +2550,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="130"/>
+      <c r="A35" s="191"/>
       <c r="B35" s="56" t="s">
         <v>66</v>
       </c>
@@ -1815,7 +2563,7 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="138" t="s">
+      <c r="A37" s="192" t="s">
         <v>70</v>
       </c>
       <c r="B37" s="65" t="s">
@@ -1829,7 +2577,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="139"/>
+      <c r="A38" s="193"/>
       <c r="B38" s="66" t="s">
         <v>72</v>
       </c>
@@ -1841,7 +2589,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="139"/>
+      <c r="A39" s="193"/>
       <c r="B39" s="66" t="s">
         <v>73</v>
       </c>
@@ -1853,7 +2601,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="139"/>
+      <c r="A40" s="193"/>
       <c r="B40" s="66" t="s">
         <v>74</v>
       </c>
@@ -1865,7 +2613,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="139"/>
+      <c r="A41" s="193"/>
       <c r="B41" s="66" t="s">
         <v>75</v>
       </c>
@@ -1877,7 +2625,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="140"/>
+      <c r="A42" s="194"/>
       <c r="B42" s="67" t="s">
         <v>76</v>
       </c>
@@ -1890,7 +2638,7 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="120" t="s">
+      <c r="A44" s="195" t="s">
         <v>84</v>
       </c>
       <c r="B44" s="85" t="s">
@@ -1904,7 +2652,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="121"/>
+      <c r="A45" s="196"/>
       <c r="B45" s="88" t="s">
         <v>85</v>
       </c>
@@ -1916,7 +2664,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="121"/>
+      <c r="A46" s="196"/>
       <c r="B46" s="88" t="s">
         <v>86</v>
       </c>
@@ -1928,7 +2676,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="121"/>
+      <c r="A47" s="196"/>
       <c r="B47" s="88" t="s">
         <v>87</v>
       </c>
@@ -1940,7 +2688,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="121"/>
+      <c r="A48" s="196"/>
       <c r="B48" s="88" t="s">
         <v>51</v>
       </c>
@@ -1952,7 +2700,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="122"/>
+      <c r="A49" s="197"/>
       <c r="B49" s="90" t="s">
         <v>88</v>
       </c>
@@ -1965,7 +2713,7 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="123" t="s">
+      <c r="A51" s="198" t="s">
         <v>93</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -1979,7 +2727,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="124"/>
+      <c r="A52" s="199"/>
       <c r="B52" s="14" t="s">
         <v>17</v>
       </c>
@@ -1992,7 +2740,7 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="125" t="s">
+      <c r="A54" s="207" t="s">
         <v>113</v>
       </c>
       <c r="B54" s="68" t="s">
@@ -2006,7 +2754,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="126"/>
+      <c r="A55" s="208"/>
       <c r="B55" s="71" t="s">
         <v>97</v>
       </c>
@@ -2018,7 +2766,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="126"/>
+      <c r="A56" s="208"/>
       <c r="B56" s="71" t="s">
         <v>98</v>
       </c>
@@ -2030,7 +2778,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="126"/>
+      <c r="A57" s="208"/>
       <c r="B57" s="71" t="s">
         <v>99</v>
       </c>
@@ -2042,7 +2790,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="126"/>
+      <c r="A58" s="208"/>
       <c r="B58" s="71" t="s">
         <v>100</v>
       </c>
@@ -2054,7 +2802,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="126"/>
+      <c r="A59" s="208"/>
       <c r="B59" s="71" t="s">
         <v>101</v>
       </c>
@@ -2066,7 +2814,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="126"/>
+      <c r="A60" s="208"/>
       <c r="B60" s="71" t="s">
         <v>102</v>
       </c>
@@ -2078,7 +2826,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="127"/>
+      <c r="A61" s="209"/>
       <c r="B61" s="73" t="s">
         <v>103</v>
       </c>
@@ -2091,7 +2839,7 @@
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="123" t="s">
+      <c r="A63" s="198" t="s">
         <v>114</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -2105,7 +2853,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="124"/>
+      <c r="A64" s="199"/>
       <c r="B64" s="14" t="s">
         <v>17</v>
       </c>
@@ -2118,7 +2866,7 @@
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="128" t="s">
+      <c r="A66" s="189" t="s">
         <v>117</v>
       </c>
       <c r="B66" s="95" t="s">
@@ -2132,7 +2880,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="129"/>
+      <c r="A67" s="190"/>
       <c r="B67" s="94" t="s">
         <v>124</v>
       </c>
@@ -2144,7 +2892,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="129"/>
+      <c r="A68" s="190"/>
       <c r="B68" s="94" t="s">
         <v>125</v>
       </c>
@@ -2156,7 +2904,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="129"/>
+      <c r="A69" s="190"/>
       <c r="B69" s="94" t="s">
         <v>126</v>
       </c>
@@ -2168,7 +2916,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="129"/>
+      <c r="A70" s="190"/>
       <c r="B70" s="94" t="s">
         <v>127</v>
       </c>
@@ -2180,7 +2928,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="130"/>
+      <c r="A71" s="191"/>
       <c r="B71" s="96" t="s">
         <v>128</v>
       </c>
@@ -2193,7 +2941,7 @@
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="108" t="s">
+      <c r="A73" s="210" t="s">
         <v>129</v>
       </c>
       <c r="B73" s="97" t="s">
@@ -2207,7 +2955,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="109"/>
+      <c r="A74" s="211"/>
       <c r="B74" s="98" t="s">
         <v>133</v>
       </c>
@@ -2219,7 +2967,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="110"/>
+      <c r="A75" s="212"/>
       <c r="B75" s="99" t="s">
         <v>134</v>
       </c>
@@ -2232,7 +2980,7 @@
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="111" t="s">
+      <c r="A77" s="213" t="s">
         <v>135</v>
       </c>
       <c r="B77" s="85" t="s">
@@ -2246,7 +2994,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="112"/>
+      <c r="A78" s="214"/>
       <c r="B78" s="90" t="s">
         <v>136</v>
       </c>
@@ -2259,7 +3007,7 @@
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="113" t="s">
+      <c r="A80" s="200" t="s">
         <v>138</v>
       </c>
       <c r="B80" s="100" t="s">
@@ -2273,7 +3021,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="114"/>
+      <c r="A81" s="201"/>
       <c r="B81" s="103" t="s">
         <v>142</v>
       </c>
@@ -2285,7 +3033,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="115"/>
+      <c r="A82" s="202"/>
       <c r="B82" s="105" t="s">
         <v>143</v>
       </c>
@@ -2298,7 +3046,7 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="116" t="s">
+      <c r="A84" s="203" t="s">
         <v>147</v>
       </c>
       <c r="B84" s="31" t="s">
@@ -2312,7 +3060,7 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="117"/>
+      <c r="A85" s="204"/>
       <c r="B85" s="36" t="s">
         <v>148</v>
       </c>
@@ -2325,7 +3073,7 @@
     </row>
     <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="118" t="s">
+      <c r="A87" s="205" t="s">
         <v>152</v>
       </c>
       <c r="B87" s="76" t="s">
@@ -2339,7 +3087,7 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="119"/>
+      <c r="A88" s="206"/>
       <c r="B88" s="79" t="s">
         <v>154</v>
       </c>
@@ -2352,24 +3100,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A54:A61"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A66:A71"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A51:A52"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A18:A25"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A54:A61"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A66:A71"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A87:A88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2378,15 +3126,2991 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" customWidth="1"/>
+    <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="111" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="112">
+        <v>1</v>
+      </c>
+      <c r="B2" s="113">
+        <v>44280.399016203701</v>
+      </c>
+      <c r="C2" s="113">
+        <v>44279.583333333336</v>
+      </c>
+      <c r="D2" s="113">
+        <v>44279.625</v>
+      </c>
+      <c r="E2" s="114" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="115" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="116">
+        <v>2</v>
+      </c>
+      <c r="B3" s="117">
+        <v>44338.399016203701</v>
+      </c>
+      <c r="C3" s="117">
+        <v>44338.333333333336</v>
+      </c>
+      <c r="D3" s="117">
+        <v>44339.083333333336</v>
+      </c>
+      <c r="E3" s="118" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="119" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="108"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="220" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="221"/>
+      <c r="O4" s="221"/>
+      <c r="P4" s="221"/>
+      <c r="Q4" s="222"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="220" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="221"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="221"/>
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="233" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="234"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="121" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="122" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="108"/>
+      <c r="S5" s="108"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="121" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="122" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="108"/>
+      <c r="J6" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="108"/>
+      <c r="M6" s="120">
+        <v>1</v>
+      </c>
+      <c r="N6" s="121" t="s">
+        <v>279</v>
+      </c>
+      <c r="O6" s="121" t="s">
+        <v>279</v>
+      </c>
+      <c r="P6" s="121" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q6" s="122">
+        <v>1</v>
+      </c>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="120">
+        <v>2</v>
+      </c>
+      <c r="B7" s="121" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="121" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="121" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="123">
+        <v>31861.399016203704</v>
+      </c>
+      <c r="F7" s="121" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="121">
+        <v>65421</v>
+      </c>
+      <c r="H7" s="122" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" s="108"/>
+      <c r="J7" s="120">
+        <v>1</v>
+      </c>
+      <c r="K7" s="122" t="s">
+        <v>263</v>
+      </c>
+      <c r="L7" s="108"/>
+      <c r="M7" s="120">
+        <v>2</v>
+      </c>
+      <c r="N7" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="O7" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="P7" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q7" s="122">
+        <v>2</v>
+      </c>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="124">
+        <v>3</v>
+      </c>
+      <c r="B8" s="125" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="125" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="125" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8" s="126">
+        <v>27651.399016203704</v>
+      </c>
+      <c r="F8" s="125" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="125">
+        <v>71950</v>
+      </c>
+      <c r="H8" s="127" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8" s="108"/>
+      <c r="J8" s="124">
+        <v>2</v>
+      </c>
+      <c r="K8" s="127" t="s">
+        <v>264</v>
+      </c>
+      <c r="L8" s="108"/>
+      <c r="M8" s="124">
+        <v>3</v>
+      </c>
+      <c r="N8" s="125" t="s">
+        <v>283</v>
+      </c>
+      <c r="O8" s="125" t="s">
+        <v>283</v>
+      </c>
+      <c r="P8" s="125" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q8" s="127">
+        <v>2</v>
+      </c>
+      <c r="R8" s="108"/>
+      <c r="S8" s="108"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="108"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="227" t="s">
+        <v>186</v>
+      </c>
+      <c r="H10" s="228"/>
+      <c r="I10" s="228"/>
+      <c r="J10" s="228"/>
+      <c r="K10" s="229"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="108"/>
+      <c r="Q10" s="108"/>
+      <c r="R10" s="108"/>
+      <c r="S10" s="108"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="224" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="226"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="218" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="219"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="129" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="129" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="130" t="s">
+        <v>77</v>
+      </c>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="108"/>
+      <c r="Q11" s="108"/>
+      <c r="R11" s="108"/>
+      <c r="S11" s="108"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="131" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="132" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="108"/>
+      <c r="D12" s="133" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="134" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="108"/>
+      <c r="G12" s="128">
+        <v>1</v>
+      </c>
+      <c r="H12" s="129">
+        <v>2151357</v>
+      </c>
+      <c r="I12" s="129">
+        <v>2</v>
+      </c>
+      <c r="J12" s="129">
+        <v>1</v>
+      </c>
+      <c r="K12" s="130">
+        <v>1</v>
+      </c>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="108"/>
+      <c r="R12" s="108"/>
+      <c r="S12" s="108"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="131">
+        <v>1</v>
+      </c>
+      <c r="B13" s="132" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="108"/>
+      <c r="D13" s="133">
+        <v>1</v>
+      </c>
+      <c r="E13" s="134" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="108"/>
+      <c r="G13" s="135">
+        <v>2</v>
+      </c>
+      <c r="H13" s="136">
+        <v>2659892</v>
+      </c>
+      <c r="I13" s="136">
+        <v>3</v>
+      </c>
+      <c r="J13" s="136">
+        <v>2</v>
+      </c>
+      <c r="K13" s="137">
+        <v>2</v>
+      </c>
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="108"/>
+      <c r="Q13" s="108"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="108"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="131">
+        <v>2</v>
+      </c>
+      <c r="B14" s="132" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="108"/>
+      <c r="D14" s="133">
+        <v>2</v>
+      </c>
+      <c r="E14" s="134" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="108"/>
+      <c r="Q14" s="108"/>
+      <c r="R14" s="108"/>
+      <c r="S14" s="108"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="131">
+        <v>3</v>
+      </c>
+      <c r="B15" s="132" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="108"/>
+      <c r="D15" s="133">
+        <v>3</v>
+      </c>
+      <c r="E15" s="134" t="s">
+        <v>173</v>
+      </c>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="218" t="s">
+        <v>278</v>
+      </c>
+      <c r="N15" s="219"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="108"/>
+      <c r="S15" s="108"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="131">
+        <v>4</v>
+      </c>
+      <c r="B16" s="132" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="108"/>
+      <c r="D16" s="138">
+        <v>4</v>
+      </c>
+      <c r="E16" s="139" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="108"/>
+      <c r="G16" s="218" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="223"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="223"/>
+      <c r="K16" s="219"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="133" t="s">
+        <v>187</v>
+      </c>
+      <c r="N16" s="134" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="108"/>
+      <c r="P16" s="108"/>
+      <c r="Q16" s="108"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="108"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="131">
+        <v>5</v>
+      </c>
+      <c r="B17" s="132" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="133" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="140" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="140" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="140" t="s">
+        <v>123</v>
+      </c>
+      <c r="K17" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="L17" s="108"/>
+      <c r="M17" s="133">
+        <v>1</v>
+      </c>
+      <c r="N17" s="134" t="s">
+        <v>268</v>
+      </c>
+      <c r="O17" s="108"/>
+      <c r="P17" s="108"/>
+      <c r="Q17" s="108"/>
+      <c r="R17" s="108"/>
+      <c r="S17" s="108"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="131">
+        <v>6</v>
+      </c>
+      <c r="B18" s="132" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="133">
+        <v>1</v>
+      </c>
+      <c r="H18" s="140">
+        <v>1</v>
+      </c>
+      <c r="I18" s="140">
+        <v>1</v>
+      </c>
+      <c r="J18" s="140">
+        <v>1</v>
+      </c>
+      <c r="K18" s="134">
+        <v>2</v>
+      </c>
+      <c r="L18" s="108"/>
+      <c r="M18" s="133">
+        <v>2</v>
+      </c>
+      <c r="N18" s="134" t="s">
+        <v>269</v>
+      </c>
+      <c r="O18" s="108"/>
+      <c r="P18" s="108"/>
+      <c r="Q18" s="108"/>
+      <c r="R18" s="108"/>
+      <c r="S18" s="108"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="131">
+        <v>7</v>
+      </c>
+      <c r="B19" s="132" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="133">
+        <v>2</v>
+      </c>
+      <c r="H19" s="140">
+        <v>1</v>
+      </c>
+      <c r="I19" s="140">
+        <v>2</v>
+      </c>
+      <c r="J19" s="140">
+        <v>1</v>
+      </c>
+      <c r="K19" s="134">
+        <v>2</v>
+      </c>
+      <c r="L19" s="108"/>
+      <c r="M19" s="133">
+        <v>3</v>
+      </c>
+      <c r="N19" s="134" t="s">
+        <v>270</v>
+      </c>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="108"/>
+      <c r="S19" s="108"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="131">
+        <v>8</v>
+      </c>
+      <c r="B20" s="132" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="133">
+        <v>3</v>
+      </c>
+      <c r="H20" s="140">
+        <v>1</v>
+      </c>
+      <c r="I20" s="140">
+        <v>3</v>
+      </c>
+      <c r="J20" s="140">
+        <v>1</v>
+      </c>
+      <c r="K20" s="134">
+        <v>2</v>
+      </c>
+      <c r="L20" s="108"/>
+      <c r="M20" s="133">
+        <v>4</v>
+      </c>
+      <c r="N20" s="134" t="s">
+        <v>271</v>
+      </c>
+      <c r="O20" s="108"/>
+      <c r="P20" s="108"/>
+      <c r="Q20" s="108"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="108"/>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="141">
+        <v>9</v>
+      </c>
+      <c r="B21" s="142" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="133">
+        <v>4</v>
+      </c>
+      <c r="H21" s="140">
+        <v>250</v>
+      </c>
+      <c r="I21" s="140">
+        <v>4</v>
+      </c>
+      <c r="J21" s="140">
+        <v>1</v>
+      </c>
+      <c r="K21" s="134">
+        <v>2</v>
+      </c>
+      <c r="L21" s="108"/>
+      <c r="M21" s="133">
+        <v>5</v>
+      </c>
+      <c r="N21" s="134" t="s">
+        <v>272</v>
+      </c>
+      <c r="O21" s="108"/>
+      <c r="P21" s="108"/>
+      <c r="Q21" s="108"/>
+      <c r="R21" s="108"/>
+      <c r="S21" s="108"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="133">
+        <v>5</v>
+      </c>
+      <c r="H22" s="140">
+        <v>125</v>
+      </c>
+      <c r="I22" s="140">
+        <v>5</v>
+      </c>
+      <c r="J22" s="140">
+        <v>1</v>
+      </c>
+      <c r="K22" s="134">
+        <v>2</v>
+      </c>
+      <c r="L22" s="108"/>
+      <c r="M22" s="133">
+        <v>6</v>
+      </c>
+      <c r="N22" s="134" t="s">
+        <v>273</v>
+      </c>
+      <c r="O22" s="108"/>
+      <c r="P22" s="108"/>
+      <c r="Q22" s="108"/>
+      <c r="R22" s="108"/>
+      <c r="S22" s="108"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="218" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="223"/>
+      <c r="C23" s="223"/>
+      <c r="D23" s="219"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="133">
+        <v>6</v>
+      </c>
+      <c r="H23" s="140">
+        <v>1</v>
+      </c>
+      <c r="I23" s="140">
+        <v>6</v>
+      </c>
+      <c r="J23" s="140">
+        <v>1</v>
+      </c>
+      <c r="K23" s="134">
+        <v>2</v>
+      </c>
+      <c r="L23" s="108"/>
+      <c r="M23" s="133">
+        <v>7</v>
+      </c>
+      <c r="N23" s="134" t="s">
+        <v>274</v>
+      </c>
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="108"/>
+      <c r="S23" s="108"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="133" t="s">
+        <v>191</v>
+      </c>
+      <c r="B24" s="140" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="140" t="s">
+        <v>192</v>
+      </c>
+      <c r="D24" s="134" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="133">
+        <v>7</v>
+      </c>
+      <c r="H24" s="140" t="s">
+        <v>188</v>
+      </c>
+      <c r="I24" s="140">
+        <v>7</v>
+      </c>
+      <c r="J24" s="140">
+        <v>1</v>
+      </c>
+      <c r="K24" s="134">
+        <v>2</v>
+      </c>
+      <c r="L24" s="108"/>
+      <c r="M24" s="133">
+        <v>8</v>
+      </c>
+      <c r="N24" s="134" t="s">
+        <v>275</v>
+      </c>
+      <c r="O24" s="108"/>
+      <c r="P24" s="108"/>
+      <c r="Q24" s="108"/>
+      <c r="R24" s="108"/>
+      <c r="S24" s="108"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="133">
+        <v>1</v>
+      </c>
+      <c r="B25" s="140">
+        <v>1</v>
+      </c>
+      <c r="C25" s="140" t="s">
+        <v>254</v>
+      </c>
+      <c r="D25" s="134">
+        <v>3</v>
+      </c>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="133">
+        <v>8</v>
+      </c>
+      <c r="H25" s="140" t="s">
+        <v>189</v>
+      </c>
+      <c r="I25" s="140">
+        <v>9</v>
+      </c>
+      <c r="J25" s="140">
+        <v>1</v>
+      </c>
+      <c r="K25" s="134">
+        <v>2</v>
+      </c>
+      <c r="L25" s="108"/>
+      <c r="M25" s="133">
+        <v>9</v>
+      </c>
+      <c r="N25" s="134" t="s">
+        <v>276</v>
+      </c>
+      <c r="O25" s="108"/>
+      <c r="P25" s="108"/>
+      <c r="Q25" s="108"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="108"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="133">
+        <v>2</v>
+      </c>
+      <c r="B26" s="140">
+        <v>1</v>
+      </c>
+      <c r="C26" s="140" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" s="134">
+        <v>4</v>
+      </c>
+      <c r="E26" s="108"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="138">
+        <v>9</v>
+      </c>
+      <c r="H26" s="143">
+        <v>5</v>
+      </c>
+      <c r="I26" s="143">
+        <v>10</v>
+      </c>
+      <c r="J26" s="143">
+        <v>1</v>
+      </c>
+      <c r="K26" s="139">
+        <v>2</v>
+      </c>
+      <c r="L26" s="108"/>
+      <c r="M26" s="138">
+        <v>10</v>
+      </c>
+      <c r="N26" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="O26" s="108"/>
+      <c r="P26" s="108"/>
+      <c r="Q26" s="108"/>
+      <c r="R26" s="108"/>
+      <c r="S26" s="108"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="133">
+        <v>3</v>
+      </c>
+      <c r="B27" s="140">
+        <v>1</v>
+      </c>
+      <c r="C27" s="140" t="s">
+        <v>256</v>
+      </c>
+      <c r="D27" s="134">
+        <v>2</v>
+      </c>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="108"/>
+      <c r="P27" s="230" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q27" s="231"/>
+      <c r="R27" s="231"/>
+      <c r="S27" s="232"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="133">
+        <v>4</v>
+      </c>
+      <c r="B28" s="140">
+        <v>1</v>
+      </c>
+      <c r="C28" s="140" t="s">
+        <v>257</v>
+      </c>
+      <c r="D28" s="134">
+        <v>5</v>
+      </c>
+      <c r="E28" s="108"/>
+      <c r="F28" s="230" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="231"/>
+      <c r="H28" s="232"/>
+      <c r="I28" s="108"/>
+      <c r="J28" s="108"/>
+      <c r="K28" s="230" t="s">
+        <v>215</v>
+      </c>
+      <c r="L28" s="231"/>
+      <c r="M28" s="232"/>
+      <c r="N28" s="108"/>
+      <c r="O28" s="108"/>
+      <c r="P28" s="144" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q28" s="145" t="s">
+        <v>261</v>
+      </c>
+      <c r="R28" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="S28" s="146" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="133">
+        <v>5</v>
+      </c>
+      <c r="B29" s="140">
+        <v>3</v>
+      </c>
+      <c r="C29" s="140">
+        <v>10</v>
+      </c>
+      <c r="D29" s="134">
+        <v>1</v>
+      </c>
+      <c r="E29" s="108"/>
+      <c r="F29" s="144" t="s">
+        <v>153</v>
+      </c>
+      <c r="G29" s="145" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="146" t="s">
+        <v>150</v>
+      </c>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="144" t="s">
+        <v>209</v>
+      </c>
+      <c r="L29" s="145" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="146" t="s">
+        <v>210</v>
+      </c>
+      <c r="N29" s="108"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="144">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="147">
+        <v>44284.50277777778</v>
+      </c>
+      <c r="R29" s="145">
+        <v>1</v>
+      </c>
+      <c r="S29" s="146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="133">
+        <v>6</v>
+      </c>
+      <c r="B30" s="140">
+        <v>3</v>
+      </c>
+      <c r="C30" s="140" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="134">
+        <v>4</v>
+      </c>
+      <c r="E30" s="108"/>
+      <c r="F30" s="148">
+        <v>1</v>
+      </c>
+      <c r="G30" s="149" t="s">
+        <v>194</v>
+      </c>
+      <c r="H30" s="150">
+        <v>1</v>
+      </c>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="144">
+        <v>1</v>
+      </c>
+      <c r="L30" s="145" t="s">
+        <v>211</v>
+      </c>
+      <c r="M30" s="146" t="s">
+        <v>212</v>
+      </c>
+      <c r="N30" s="108"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="144">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="147">
+        <v>44284.50277777778</v>
+      </c>
+      <c r="R30" s="145">
+        <v>2</v>
+      </c>
+      <c r="S30" s="146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="133">
+        <v>7</v>
+      </c>
+      <c r="B31" s="140">
+        <v>3</v>
+      </c>
+      <c r="C31" s="140" t="s">
+        <v>255</v>
+      </c>
+      <c r="D31" s="134">
+        <v>2</v>
+      </c>
+      <c r="E31" s="108"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="108"/>
+      <c r="H31" s="108"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="144">
+        <v>2</v>
+      </c>
+      <c r="L31" s="145" t="s">
+        <v>230</v>
+      </c>
+      <c r="M31" s="146" t="s">
+        <v>213</v>
+      </c>
+      <c r="N31" s="108"/>
+      <c r="O31" s="108"/>
+      <c r="P31" s="148">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="151">
+        <v>44284.50277777778</v>
+      </c>
+      <c r="R31" s="149">
+        <v>3</v>
+      </c>
+      <c r="S31" s="150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="133">
+        <v>8</v>
+      </c>
+      <c r="B32" s="140">
+        <v>3</v>
+      </c>
+      <c r="C32" s="140" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" s="134">
+        <v>5</v>
+      </c>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="148">
+        <v>3</v>
+      </c>
+      <c r="L32" s="149" t="s">
+        <v>211</v>
+      </c>
+      <c r="M32" s="150" t="s">
+        <v>214</v>
+      </c>
+      <c r="N32" s="108"/>
+      <c r="O32" s="108"/>
+      <c r="P32" s="108"/>
+      <c r="Q32" s="108"/>
+      <c r="R32" s="108"/>
+      <c r="S32" s="108"/>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="133">
+        <v>9</v>
+      </c>
+      <c r="B33" s="140">
+        <v>4</v>
+      </c>
+      <c r="C33" s="140">
+        <v>100</v>
+      </c>
+      <c r="D33" s="134">
+        <v>1</v>
+      </c>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="108"/>
+      <c r="N33" s="108"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="108"/>
+      <c r="Q33" s="108"/>
+      <c r="R33" s="108"/>
+      <c r="S33" s="108"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="133">
+        <v>10</v>
+      </c>
+      <c r="B34" s="140">
+        <v>4</v>
+      </c>
+      <c r="C34" s="140">
+        <v>10</v>
+      </c>
+      <c r="D34" s="134">
+        <v>3</v>
+      </c>
+      <c r="E34" s="108"/>
+      <c r="F34" s="218" t="s">
+        <v>205</v>
+      </c>
+      <c r="G34" s="223"/>
+      <c r="H34" s="219"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="230" t="s">
+        <v>58</v>
+      </c>
+      <c r="M34" s="232"/>
+      <c r="N34" s="108"/>
+      <c r="O34" s="230" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" s="231"/>
+      <c r="Q34" s="231"/>
+      <c r="R34" s="232"/>
+      <c r="S34" s="108"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="133">
+        <v>11</v>
+      </c>
+      <c r="B35" s="140">
+        <v>4</v>
+      </c>
+      <c r="C35" s="140" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="134">
+        <v>2</v>
+      </c>
+      <c r="E35" s="108"/>
+      <c r="F35" s="133" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="140" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="134" t="s">
+        <v>196</v>
+      </c>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="108"/>
+      <c r="L35" s="144" t="s">
+        <v>61</v>
+      </c>
+      <c r="M35" s="146" t="s">
+        <v>17</v>
+      </c>
+      <c r="N35" s="108"/>
+      <c r="O35" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="P35" s="145" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q35" s="145" t="s">
+        <v>69</v>
+      </c>
+      <c r="R35" s="146" t="s">
+        <v>61</v>
+      </c>
+      <c r="S35" s="108"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="133">
+        <v>12</v>
+      </c>
+      <c r="B36" s="140">
+        <v>4</v>
+      </c>
+      <c r="C36" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="D36" s="134">
+        <v>5</v>
+      </c>
+      <c r="E36" s="108"/>
+      <c r="F36" s="133">
+        <v>1</v>
+      </c>
+      <c r="G36" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="H36" s="134" t="s">
+        <v>198</v>
+      </c>
+      <c r="I36" s="108"/>
+      <c r="J36" s="108"/>
+      <c r="K36" s="108"/>
+      <c r="L36" s="144">
+        <v>1</v>
+      </c>
+      <c r="M36" s="146" t="s">
+        <v>227</v>
+      </c>
+      <c r="N36" s="108"/>
+      <c r="O36" s="144">
+        <v>1</v>
+      </c>
+      <c r="P36" s="145">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="145" t="s">
+        <v>225</v>
+      </c>
+      <c r="R36" s="146">
+        <v>1</v>
+      </c>
+      <c r="S36" s="108"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="133">
+        <v>13</v>
+      </c>
+      <c r="B37" s="140">
+        <v>2</v>
+      </c>
+      <c r="C37" s="140">
+        <v>1000</v>
+      </c>
+      <c r="D37" s="134">
+        <v>1</v>
+      </c>
+      <c r="E37" s="108"/>
+      <c r="F37" s="133">
+        <v>2</v>
+      </c>
+      <c r="G37" s="140" t="s">
+        <v>199</v>
+      </c>
+      <c r="H37" s="134" t="s">
+        <v>200</v>
+      </c>
+      <c r="I37" s="108"/>
+      <c r="J37" s="108"/>
+      <c r="K37" s="108"/>
+      <c r="L37" s="144">
+        <v>2</v>
+      </c>
+      <c r="M37" s="146" t="s">
+        <v>228</v>
+      </c>
+      <c r="N37" s="108"/>
+      <c r="O37" s="144">
+        <v>2</v>
+      </c>
+      <c r="P37" s="145">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="145" t="s">
+        <v>225</v>
+      </c>
+      <c r="R37" s="146">
+        <v>3</v>
+      </c>
+      <c r="S37" s="108"/>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="133">
+        <v>14</v>
+      </c>
+      <c r="B38" s="140">
+        <v>2</v>
+      </c>
+      <c r="C38" s="140">
+        <v>100</v>
+      </c>
+      <c r="D38" s="134">
+        <v>3</v>
+      </c>
+      <c r="E38" s="108"/>
+      <c r="F38" s="133">
+        <v>3</v>
+      </c>
+      <c r="G38" s="140" t="s">
+        <v>201</v>
+      </c>
+      <c r="H38" s="134" t="s">
+        <v>202</v>
+      </c>
+      <c r="I38" s="108"/>
+      <c r="J38" s="108"/>
+      <c r="K38" s="108"/>
+      <c r="L38" s="148">
+        <v>3</v>
+      </c>
+      <c r="M38" s="150" t="s">
+        <v>229</v>
+      </c>
+      <c r="N38" s="108"/>
+      <c r="O38" s="148">
+        <v>3</v>
+      </c>
+      <c r="P38" s="149">
+        <v>22</v>
+      </c>
+      <c r="Q38" s="149" t="s">
+        <v>225</v>
+      </c>
+      <c r="R38" s="150">
+        <v>1</v>
+      </c>
+      <c r="S38" s="108"/>
+    </row>
+    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="133">
+        <v>15</v>
+      </c>
+      <c r="B39" s="140">
+        <v>2</v>
+      </c>
+      <c r="C39" s="140">
+        <v>10</v>
+      </c>
+      <c r="D39" s="134">
+        <v>4</v>
+      </c>
+      <c r="E39" s="108"/>
+      <c r="F39" s="138">
+        <v>4</v>
+      </c>
+      <c r="G39" s="143" t="s">
+        <v>203</v>
+      </c>
+      <c r="H39" s="139" t="s">
+        <v>204</v>
+      </c>
+      <c r="I39" s="108"/>
+      <c r="J39" s="108"/>
+      <c r="K39" s="108"/>
+      <c r="L39" s="108"/>
+      <c r="M39" s="108"/>
+      <c r="N39" s="108"/>
+      <c r="O39" s="108"/>
+      <c r="P39" s="108"/>
+      <c r="Q39" s="108"/>
+      <c r="R39" s="108"/>
+      <c r="S39" s="108"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="133">
+        <v>16</v>
+      </c>
+      <c r="B40" s="140">
+        <v>2</v>
+      </c>
+      <c r="C40" s="140" t="s">
+        <v>256</v>
+      </c>
+      <c r="D40" s="134">
+        <v>5</v>
+      </c>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="108"/>
+      <c r="K40" s="108"/>
+      <c r="L40" s="108"/>
+      <c r="M40" s="108"/>
+      <c r="N40" s="108"/>
+      <c r="O40" s="108"/>
+      <c r="P40" s="108"/>
+      <c r="Q40" s="108"/>
+      <c r="R40" s="108"/>
+      <c r="S40" s="108"/>
+    </row>
+    <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="133">
+        <v>17</v>
+      </c>
+      <c r="B41" s="140">
+        <v>5</v>
+      </c>
+      <c r="C41" s="140">
+        <v>1000000</v>
+      </c>
+      <c r="D41" s="134">
+        <v>1</v>
+      </c>
+      <c r="E41" s="108"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="108"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="108"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="108"/>
+      <c r="N41" s="108"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="108"/>
+      <c r="Q41" s="108"/>
+      <c r="R41" s="108"/>
+      <c r="S41" s="108"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="133">
+        <v>18</v>
+      </c>
+      <c r="B42" s="140">
+        <v>5</v>
+      </c>
+      <c r="C42" s="140">
+        <v>100000</v>
+      </c>
+      <c r="D42" s="134">
+        <v>3</v>
+      </c>
+      <c r="E42" s="108"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="108"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="108"/>
+      <c r="J42" s="108"/>
+      <c r="K42" s="224" t="s">
+        <v>84</v>
+      </c>
+      <c r="L42" s="225"/>
+      <c r="M42" s="225"/>
+      <c r="N42" s="225"/>
+      <c r="O42" s="225"/>
+      <c r="P42" s="225"/>
+      <c r="Q42" s="226"/>
+      <c r="R42" s="108"/>
+      <c r="S42" s="108"/>
+    </row>
+    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="133">
+        <v>19</v>
+      </c>
+      <c r="B43" s="140">
+        <v>5</v>
+      </c>
+      <c r="C43" s="140">
+        <v>10000</v>
+      </c>
+      <c r="D43" s="134">
+        <v>4</v>
+      </c>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="108"/>
+      <c r="H43" s="108"/>
+      <c r="I43" s="108"/>
+      <c r="J43" s="108"/>
+      <c r="K43" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="L43" s="152" t="s">
+        <v>17</v>
+      </c>
+      <c r="M43" s="152" t="s">
+        <v>90</v>
+      </c>
+      <c r="N43" s="152" t="s">
+        <v>49</v>
+      </c>
+      <c r="O43" s="152" t="s">
+        <v>11</v>
+      </c>
+      <c r="P43" s="152" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q43" s="132" t="s">
+        <v>50</v>
+      </c>
+      <c r="R43" s="108"/>
+      <c r="S43" s="108"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="133">
+        <v>20</v>
+      </c>
+      <c r="B44" s="140">
+        <v>5</v>
+      </c>
+      <c r="C44" s="140">
+        <v>1000</v>
+      </c>
+      <c r="D44" s="134">
+        <v>2</v>
+      </c>
+      <c r="E44" s="108"/>
+      <c r="F44" s="218" t="s">
+        <v>208</v>
+      </c>
+      <c r="G44" s="223"/>
+      <c r="H44" s="223"/>
+      <c r="I44" s="219"/>
+      <c r="J44" s="108"/>
+      <c r="K44" s="131">
+        <v>1</v>
+      </c>
+      <c r="L44" s="152" t="s">
+        <v>216</v>
+      </c>
+      <c r="M44" s="152">
+        <v>645257468</v>
+      </c>
+      <c r="N44" s="152" t="s">
+        <v>217</v>
+      </c>
+      <c r="O44" s="152" t="s">
+        <v>218</v>
+      </c>
+      <c r="P44" s="152" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q44" s="132">
+        <v>54620</v>
+      </c>
+      <c r="R44" s="108"/>
+      <c r="S44" s="108"/>
+    </row>
+    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="133">
+        <v>21</v>
+      </c>
+      <c r="B45" s="140">
+        <v>7</v>
+      </c>
+      <c r="C45" s="140" t="s">
+        <v>254</v>
+      </c>
+      <c r="D45" s="134">
+        <v>8</v>
+      </c>
+      <c r="E45" s="108"/>
+      <c r="F45" s="153" t="s">
+        <v>206</v>
+      </c>
+      <c r="G45" s="154" t="s">
+        <v>207</v>
+      </c>
+      <c r="H45" s="154" t="s">
+        <v>123</v>
+      </c>
+      <c r="I45" s="155" t="s">
+        <v>195</v>
+      </c>
+      <c r="J45" s="108"/>
+      <c r="K45" s="141">
+        <v>2</v>
+      </c>
+      <c r="L45" s="156" t="s">
+        <v>220</v>
+      </c>
+      <c r="M45" s="156">
+        <v>615457698</v>
+      </c>
+      <c r="N45" s="156" t="s">
+        <v>221</v>
+      </c>
+      <c r="O45" s="156" t="s">
+        <v>222</v>
+      </c>
+      <c r="P45" s="156" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q45" s="142">
+        <v>20150</v>
+      </c>
+      <c r="R45" s="108"/>
+      <c r="S45" s="108"/>
+    </row>
+    <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="133">
+        <v>22</v>
+      </c>
+      <c r="B46" s="140">
+        <v>7</v>
+      </c>
+      <c r="C46" s="140" t="s">
+        <v>255</v>
+      </c>
+      <c r="D46" s="134">
+        <v>9</v>
+      </c>
+      <c r="E46" s="108"/>
+      <c r="F46" s="133">
+        <v>1</v>
+      </c>
+      <c r="G46" s="140">
+        <v>1</v>
+      </c>
+      <c r="H46" s="140">
+        <v>1</v>
+      </c>
+      <c r="I46" s="134">
+        <v>1</v>
+      </c>
+      <c r="J46" s="108"/>
+      <c r="K46" s="108"/>
+      <c r="L46" s="108"/>
+      <c r="M46" s="108"/>
+      <c r="N46" s="108"/>
+      <c r="O46" s="108"/>
+      <c r="P46" s="108"/>
+      <c r="Q46" s="108"/>
+      <c r="R46" s="108"/>
+      <c r="S46" s="108"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="133">
+        <v>23</v>
+      </c>
+      <c r="B47" s="140">
+        <v>7</v>
+      </c>
+      <c r="C47" s="140" t="s">
+        <v>256</v>
+      </c>
+      <c r="D47" s="134">
+        <v>6</v>
+      </c>
+      <c r="E47" s="108"/>
+      <c r="F47" s="133">
+        <v>2</v>
+      </c>
+      <c r="G47" s="140">
+        <v>2</v>
+      </c>
+      <c r="H47" s="140">
+        <v>1</v>
+      </c>
+      <c r="I47" s="134">
+        <v>2</v>
+      </c>
+      <c r="J47" s="108"/>
+      <c r="K47" s="218" t="s">
+        <v>117</v>
+      </c>
+      <c r="L47" s="223"/>
+      <c r="M47" s="223"/>
+      <c r="N47" s="223"/>
+      <c r="O47" s="223"/>
+      <c r="P47" s="219"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="108"/>
+      <c r="S47" s="108"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="133">
+        <v>24</v>
+      </c>
+      <c r="B48" s="140">
+        <v>7</v>
+      </c>
+      <c r="C48" s="140" t="s">
+        <v>257</v>
+      </c>
+      <c r="D48" s="134">
+        <v>10</v>
+      </c>
+      <c r="E48" s="108"/>
+      <c r="F48" s="133">
+        <v>3</v>
+      </c>
+      <c r="G48" s="140">
+        <v>3</v>
+      </c>
+      <c r="H48" s="140">
+        <v>1</v>
+      </c>
+      <c r="I48" s="134">
+        <v>3</v>
+      </c>
+      <c r="J48" s="108"/>
+      <c r="K48" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="L48" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="140" t="s">
+        <v>119</v>
+      </c>
+      <c r="N48" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="O48" s="140" t="s">
+        <v>122</v>
+      </c>
+      <c r="P48" s="134" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q48" s="108"/>
+      <c r="R48" s="108"/>
+      <c r="S48" s="108"/>
+    </row>
+    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="138">
+        <v>25</v>
+      </c>
+      <c r="B49" s="143">
+        <v>8</v>
+      </c>
+      <c r="C49" s="143">
+        <v>10</v>
+      </c>
+      <c r="D49" s="139">
+        <v>7</v>
+      </c>
+      <c r="E49" s="108"/>
+      <c r="F49" s="138">
+        <v>4</v>
+      </c>
+      <c r="G49" s="143">
+        <v>4</v>
+      </c>
+      <c r="H49" s="143">
+        <v>1</v>
+      </c>
+      <c r="I49" s="139">
+        <v>4</v>
+      </c>
+      <c r="J49" s="108"/>
+      <c r="K49" s="138">
+        <v>1</v>
+      </c>
+      <c r="L49" s="143" t="s">
+        <v>249</v>
+      </c>
+      <c r="M49" s="143">
+        <v>1</v>
+      </c>
+      <c r="N49" s="143" t="s">
+        <v>250</v>
+      </c>
+      <c r="O49" s="143" t="s">
+        <v>251</v>
+      </c>
+      <c r="P49" s="139">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="108"/>
+      <c r="R49" s="108"/>
+      <c r="S49" s="108"/>
+    </row>
+    <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="108"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="108"/>
+      <c r="J50" s="108"/>
+      <c r="K50" s="108"/>
+      <c r="L50" s="108"/>
+      <c r="M50" s="108"/>
+      <c r="N50" s="108"/>
+      <c r="O50" s="108"/>
+      <c r="P50" s="108"/>
+      <c r="Q50" s="108"/>
+      <c r="R50" s="108"/>
+      <c r="S50" s="108"/>
+    </row>
+    <row r="51" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="108"/>
+      <c r="B51" s="108"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="108"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="108"/>
+      <c r="J51" s="108"/>
+      <c r="K51" s="108"/>
+      <c r="L51" s="108"/>
+      <c r="M51" s="108"/>
+      <c r="N51" s="218" t="s">
+        <v>135</v>
+      </c>
+      <c r="O51" s="223"/>
+      <c r="P51" s="219"/>
+      <c r="Q51" s="108"/>
+      <c r="R51" s="108"/>
+      <c r="S51" s="108"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="108"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="227" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="229"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="108"/>
+      <c r="K52" s="108"/>
+      <c r="L52" s="108"/>
+      <c r="M52" s="108"/>
+      <c r="N52" s="133" t="s">
+        <v>137</v>
+      </c>
+      <c r="O52" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="P52" s="134" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q52" s="108"/>
+      <c r="R52" s="108"/>
+      <c r="S52" s="108"/>
+    </row>
+    <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="108"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="128" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="130" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="108"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="108"/>
+      <c r="J53" s="108"/>
+      <c r="K53" s="108"/>
+      <c r="L53" s="108"/>
+      <c r="M53" s="108"/>
+      <c r="N53" s="138">
+        <v>1</v>
+      </c>
+      <c r="O53" s="143" t="s">
+        <v>231</v>
+      </c>
+      <c r="P53" s="139">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="108"/>
+      <c r="R53" s="108"/>
+      <c r="S53" s="108"/>
+    </row>
+    <row r="54" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="108"/>
+      <c r="B54" s="108"/>
+      <c r="C54" s="128">
+        <v>1</v>
+      </c>
+      <c r="D54" s="130">
+        <v>0</v>
+      </c>
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="108"/>
+      <c r="J54" s="108"/>
+      <c r="K54" s="108"/>
+      <c r="L54" s="108"/>
+      <c r="M54" s="108"/>
+      <c r="N54" s="108"/>
+      <c r="O54" s="108"/>
+      <c r="P54" s="108"/>
+      <c r="Q54" s="108"/>
+      <c r="R54" s="108"/>
+      <c r="S54" s="108"/>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="108"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="128">
+        <v>2</v>
+      </c>
+      <c r="D55" s="130">
+        <v>5</v>
+      </c>
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="108"/>
+      <c r="H55" s="224" t="s">
+        <v>113</v>
+      </c>
+      <c r="I55" s="225"/>
+      <c r="J55" s="225"/>
+      <c r="K55" s="225"/>
+      <c r="L55" s="225"/>
+      <c r="M55" s="225"/>
+      <c r="N55" s="225"/>
+      <c r="O55" s="225"/>
+      <c r="P55" s="225"/>
+      <c r="Q55" s="225"/>
+      <c r="R55" s="226"/>
+      <c r="S55" s="108"/>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="108"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="128">
+        <v>3</v>
+      </c>
+      <c r="D56" s="130">
+        <v>7</v>
+      </c>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="131" t="s">
+        <v>104</v>
+      </c>
+      <c r="I56" s="152" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="152" t="s">
+        <v>105</v>
+      </c>
+      <c r="K56" s="152" t="s">
+        <v>232</v>
+      </c>
+      <c r="L56" s="152" t="s">
+        <v>107</v>
+      </c>
+      <c r="M56" s="152" t="s">
+        <v>108</v>
+      </c>
+      <c r="N56" s="152" t="s">
+        <v>89</v>
+      </c>
+      <c r="O56" s="152" t="s">
+        <v>94</v>
+      </c>
+      <c r="P56" s="152" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q56" s="152" t="s">
+        <v>109</v>
+      </c>
+      <c r="R56" s="132" t="s">
+        <v>110</v>
+      </c>
+      <c r="S56" s="108"/>
+    </row>
+    <row r="57" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="108"/>
+      <c r="B57" s="108"/>
+      <c r="C57" s="135">
+        <v>4</v>
+      </c>
+      <c r="D57" s="137">
+        <v>20</v>
+      </c>
+      <c r="E57" s="108"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="131">
+        <v>1</v>
+      </c>
+      <c r="I57" s="152" t="s">
+        <v>233</v>
+      </c>
+      <c r="J57" s="152">
+        <v>1236451</v>
+      </c>
+      <c r="K57" s="152">
+        <v>100</v>
+      </c>
+      <c r="L57" s="152">
+        <v>1</v>
+      </c>
+      <c r="M57" s="152">
+        <v>3</v>
+      </c>
+      <c r="N57" s="152">
+        <v>1</v>
+      </c>
+      <c r="O57" s="152">
+        <v>6</v>
+      </c>
+      <c r="P57" s="152">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="157">
+        <v>44284.502743055556</v>
+      </c>
+      <c r="R57" s="158">
+        <v>44284.502743055556</v>
+      </c>
+      <c r="S57" s="108"/>
+    </row>
+    <row r="58" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="108"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="108"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="131">
+        <v>2</v>
+      </c>
+      <c r="I58" s="152" t="s">
+        <v>234</v>
+      </c>
+      <c r="J58" s="152">
+        <v>1236461</v>
+      </c>
+      <c r="K58" s="152">
+        <v>100</v>
+      </c>
+      <c r="L58" s="152">
+        <v>1</v>
+      </c>
+      <c r="M58" s="152">
+        <v>2</v>
+      </c>
+      <c r="N58" s="152">
+        <v>1</v>
+      </c>
+      <c r="O58" s="152">
+        <v>6</v>
+      </c>
+      <c r="P58" s="152">
+        <v>2</v>
+      </c>
+      <c r="Q58" s="157">
+        <v>44284.502743055556</v>
+      </c>
+      <c r="R58" s="158">
+        <v>44284.502743055556</v>
+      </c>
+      <c r="S58" s="108"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="227" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="228"/>
+      <c r="C59" s="228"/>
+      <c r="D59" s="228"/>
+      <c r="E59" s="228"/>
+      <c r="F59" s="229"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="131">
+        <v>3</v>
+      </c>
+      <c r="I59" s="152" t="s">
+        <v>235</v>
+      </c>
+      <c r="J59" s="152">
+        <v>769542</v>
+      </c>
+      <c r="K59" s="152">
+        <v>100</v>
+      </c>
+      <c r="L59" s="152">
+        <v>1</v>
+      </c>
+      <c r="M59" s="152">
+        <v>2</v>
+      </c>
+      <c r="N59" s="152">
+        <v>1</v>
+      </c>
+      <c r="O59" s="152">
+        <v>6</v>
+      </c>
+      <c r="P59" s="152">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="157">
+        <v>44284.502743055556</v>
+      </c>
+      <c r="R59" s="158">
+        <v>44284.502743055556</v>
+      </c>
+      <c r="S59" s="108"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="159" t="s">
+        <v>144</v>
+      </c>
+      <c r="B60" s="160" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="160" t="s">
+        <v>224</v>
+      </c>
+      <c r="D60" s="160" t="s">
+        <v>104</v>
+      </c>
+      <c r="E60" s="160" t="s">
+        <v>137</v>
+      </c>
+      <c r="F60" s="161" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" s="108"/>
+      <c r="H60" s="131">
+        <v>4</v>
+      </c>
+      <c r="I60" s="152" t="s">
+        <v>236</v>
+      </c>
+      <c r="J60" s="152">
+        <v>7496213</v>
+      </c>
+      <c r="K60" s="152">
+        <v>1</v>
+      </c>
+      <c r="L60" s="152">
+        <v>1</v>
+      </c>
+      <c r="M60" s="152" t="s">
+        <v>237</v>
+      </c>
+      <c r="N60" s="152">
+        <v>1</v>
+      </c>
+      <c r="O60" s="152">
+        <v>3</v>
+      </c>
+      <c r="P60" s="152">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="157">
+        <v>44284.502743055556</v>
+      </c>
+      <c r="R60" s="158">
+        <v>44284.502743055556</v>
+      </c>
+      <c r="S60" s="108"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="159">
+        <v>1</v>
+      </c>
+      <c r="B61" s="160">
+        <v>1</v>
+      </c>
+      <c r="C61" s="160">
+        <v>20</v>
+      </c>
+      <c r="D61" s="160" t="s">
+        <v>225</v>
+      </c>
+      <c r="E61" s="160">
+        <v>1</v>
+      </c>
+      <c r="F61" s="161">
+        <v>1</v>
+      </c>
+      <c r="G61" s="108"/>
+      <c r="H61" s="131">
+        <v>5</v>
+      </c>
+      <c r="I61" s="152" t="s">
+        <v>238</v>
+      </c>
+      <c r="J61" s="152">
+        <v>564210</v>
+      </c>
+      <c r="K61" s="152">
+        <v>1</v>
+      </c>
+      <c r="L61" s="152">
+        <v>1</v>
+      </c>
+      <c r="M61" s="152" t="s">
+        <v>239</v>
+      </c>
+      <c r="N61" s="152">
+        <v>1</v>
+      </c>
+      <c r="O61" s="152">
+        <v>3</v>
+      </c>
+      <c r="P61" s="152">
+        <v>5</v>
+      </c>
+      <c r="Q61" s="157">
+        <v>44284.502754629626</v>
+      </c>
+      <c r="R61" s="158">
+        <v>44284.502754629626</v>
+      </c>
+      <c r="S61" s="108"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="159">
+        <v>2</v>
+      </c>
+      <c r="B62" s="160">
+        <v>1</v>
+      </c>
+      <c r="C62" s="160">
+        <v>20</v>
+      </c>
+      <c r="D62" s="160">
+        <v>12</v>
+      </c>
+      <c r="E62" s="160" t="s">
+        <v>225</v>
+      </c>
+      <c r="F62" s="161">
+        <v>2</v>
+      </c>
+      <c r="G62" s="108"/>
+      <c r="H62" s="131">
+        <v>6</v>
+      </c>
+      <c r="I62" s="152" t="s">
+        <v>240</v>
+      </c>
+      <c r="J62" s="152">
+        <v>164529</v>
+      </c>
+      <c r="K62" s="152">
+        <v>1</v>
+      </c>
+      <c r="L62" s="152">
+        <v>1</v>
+      </c>
+      <c r="M62" s="152">
+        <v>5</v>
+      </c>
+      <c r="N62" s="152">
+        <v>1</v>
+      </c>
+      <c r="O62" s="152">
+        <v>3</v>
+      </c>
+      <c r="P62" s="152">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="157">
+        <v>44284.502754629626</v>
+      </c>
+      <c r="R62" s="158">
+        <v>44284.502754629626</v>
+      </c>
+      <c r="S62" s="108"/>
+    </row>
+    <row r="63" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="162">
+        <v>3</v>
+      </c>
+      <c r="B63" s="163">
+        <v>1</v>
+      </c>
+      <c r="C63" s="163" t="s">
+        <v>226</v>
+      </c>
+      <c r="D63" s="163">
+        <v>12</v>
+      </c>
+      <c r="E63" s="163" t="s">
+        <v>225</v>
+      </c>
+      <c r="F63" s="164">
+        <v>2</v>
+      </c>
+      <c r="G63" s="108"/>
+      <c r="H63" s="131">
+        <v>7</v>
+      </c>
+      <c r="I63" s="152" t="s">
+        <v>241</v>
+      </c>
+      <c r="J63" s="152">
+        <v>548625</v>
+      </c>
+      <c r="K63" s="152">
+        <v>10</v>
+      </c>
+      <c r="L63" s="152">
+        <v>1</v>
+      </c>
+      <c r="M63" s="152">
+        <v>3</v>
+      </c>
+      <c r="N63" s="152">
+        <v>1</v>
+      </c>
+      <c r="O63" s="152">
+        <v>7</v>
+      </c>
+      <c r="P63" s="152">
+        <v>5</v>
+      </c>
+      <c r="Q63" s="157">
+        <v>44284.502754629626</v>
+      </c>
+      <c r="R63" s="158">
+        <v>44284.502754629626</v>
+      </c>
+      <c r="S63" s="108"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="108"/>
+      <c r="B64" s="108"/>
+      <c r="C64" s="108"/>
+      <c r="D64" s="108"/>
+      <c r="E64" s="108"/>
+      <c r="F64" s="108"/>
+      <c r="G64" s="108"/>
+      <c r="H64" s="131">
+        <v>8</v>
+      </c>
+      <c r="I64" s="152" t="s">
+        <v>242</v>
+      </c>
+      <c r="J64" s="152">
+        <v>9756241</v>
+      </c>
+      <c r="K64" s="152">
+        <v>1</v>
+      </c>
+      <c r="L64" s="152">
+        <v>1</v>
+      </c>
+      <c r="M64" s="152" t="s">
+        <v>243</v>
+      </c>
+      <c r="N64" s="152">
+        <v>1</v>
+      </c>
+      <c r="O64" s="152">
+        <v>3</v>
+      </c>
+      <c r="P64" s="152">
+        <v>5</v>
+      </c>
+      <c r="Q64" s="157">
+        <v>44284.502754629626</v>
+      </c>
+      <c r="R64" s="158">
+        <v>44284.502754629626</v>
+      </c>
+      <c r="S64" s="108"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="108"/>
+      <c r="B65" s="108"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="131">
+        <v>9</v>
+      </c>
+      <c r="I65" s="152" t="s">
+        <v>244</v>
+      </c>
+      <c r="J65" s="152">
+        <v>76120</v>
+      </c>
+      <c r="K65" s="152">
+        <v>1</v>
+      </c>
+      <c r="L65" s="152">
+        <v>3</v>
+      </c>
+      <c r="M65" s="152" t="s">
+        <v>245</v>
+      </c>
+      <c r="N65" s="152">
+        <v>1</v>
+      </c>
+      <c r="O65" s="152">
+        <v>8</v>
+      </c>
+      <c r="P65" s="152">
+        <v>6</v>
+      </c>
+      <c r="Q65" s="157">
+        <v>44284.502754629626</v>
+      </c>
+      <c r="R65" s="158">
+        <v>44284.502754629626</v>
+      </c>
+      <c r="S65" s="108"/>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="108"/>
+      <c r="B66" s="108"/>
+      <c r="C66" s="108"/>
+      <c r="D66" s="108"/>
+      <c r="E66" s="108"/>
+      <c r="F66" s="108"/>
+      <c r="G66" s="108"/>
+      <c r="H66" s="131">
+        <v>10</v>
+      </c>
+      <c r="I66" s="152" t="s">
+        <v>246</v>
+      </c>
+      <c r="J66" s="152">
+        <v>856421</v>
+      </c>
+      <c r="K66" s="152">
+        <v>1</v>
+      </c>
+      <c r="L66" s="152">
+        <v>1</v>
+      </c>
+      <c r="M66" s="152" t="s">
+        <v>239</v>
+      </c>
+      <c r="N66" s="152">
+        <v>1</v>
+      </c>
+      <c r="O66" s="152">
+        <v>7</v>
+      </c>
+      <c r="P66" s="152">
+        <v>6</v>
+      </c>
+      <c r="Q66" s="157">
+        <v>44284.502754629626</v>
+      </c>
+      <c r="R66" s="158">
+        <v>44284.502754629626</v>
+      </c>
+      <c r="S66" s="108"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="108"/>
+      <c r="B67" s="108"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="108"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="131">
+        <v>11</v>
+      </c>
+      <c r="I67" s="152" t="s">
+        <v>247</v>
+      </c>
+      <c r="J67" s="152">
+        <v>856421</v>
+      </c>
+      <c r="K67" s="152">
+        <v>100</v>
+      </c>
+      <c r="L67" s="152">
+        <v>1</v>
+      </c>
+      <c r="M67" s="152" t="s">
+        <v>245</v>
+      </c>
+      <c r="N67" s="152">
+        <v>1</v>
+      </c>
+      <c r="O67" s="152">
+        <v>7</v>
+      </c>
+      <c r="P67" s="152">
+        <v>2</v>
+      </c>
+      <c r="Q67" s="157">
+        <v>44284.502754629626</v>
+      </c>
+      <c r="R67" s="158">
+        <v>44284.502754629626</v>
+      </c>
+      <c r="S67" s="108"/>
+    </row>
+    <row r="68" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="108"/>
+      <c r="B68" s="108"/>
+      <c r="C68" s="108"/>
+      <c r="D68" s="108"/>
+      <c r="E68" s="108"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="108"/>
+      <c r="H68" s="141">
+        <v>12</v>
+      </c>
+      <c r="I68" s="156" t="s">
+        <v>248</v>
+      </c>
+      <c r="J68" s="156">
+        <v>645210</v>
+      </c>
+      <c r="K68" s="156">
+        <v>1</v>
+      </c>
+      <c r="L68" s="156">
+        <v>1</v>
+      </c>
+      <c r="M68" s="156">
+        <v>10</v>
+      </c>
+      <c r="N68" s="156">
+        <v>1</v>
+      </c>
+      <c r="O68" s="156">
+        <v>9</v>
+      </c>
+      <c r="P68" s="156">
+        <v>6</v>
+      </c>
+      <c r="Q68" s="165">
+        <v>44284.502754629626</v>
+      </c>
+      <c r="R68" s="166">
+        <v>44284.502754629626</v>
+      </c>
+      <c r="S68" s="108"/>
+    </row>
+    <row r="69" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="108"/>
+      <c r="B69" s="108"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="108"/>
+      <c r="E69" s="108"/>
+      <c r="F69" s="108"/>
+      <c r="G69" s="108"/>
+      <c r="H69" s="108"/>
+      <c r="I69" s="108"/>
+      <c r="J69" s="108"/>
+      <c r="K69" s="108"/>
+      <c r="L69" s="108"/>
+      <c r="M69" s="108"/>
+      <c r="N69" s="108"/>
+      <c r="O69" s="108"/>
+      <c r="P69" s="108"/>
+      <c r="Q69" s="108"/>
+      <c r="R69" s="108"/>
+      <c r="S69" s="108"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="108"/>
+      <c r="B70" s="108"/>
+      <c r="C70" s="215" t="s">
+        <v>267</v>
+      </c>
+      <c r="D70" s="216"/>
+      <c r="E70" s="216"/>
+      <c r="F70" s="216"/>
+      <c r="G70" s="216"/>
+      <c r="H70" s="217"/>
+      <c r="I70" s="108"/>
+      <c r="J70" s="108"/>
+      <c r="K70" s="108"/>
+      <c r="L70" s="108"/>
+      <c r="M70" s="108"/>
+      <c r="N70" s="108"/>
+      <c r="O70" s="108"/>
+      <c r="P70" s="108"/>
+      <c r="Q70" s="108"/>
+      <c r="R70" s="108"/>
+      <c r="S70" s="108"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="108"/>
+      <c r="B71" s="108"/>
+      <c r="C71" s="167" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" s="168" t="s">
+        <v>25</v>
+      </c>
+      <c r="E71" s="168" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" s="168" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="H71" s="169" t="s">
+        <v>8</v>
+      </c>
+      <c r="I71" s="108"/>
+      <c r="J71" s="108"/>
+      <c r="K71" s="108"/>
+      <c r="L71" s="108"/>
+      <c r="M71" s="108"/>
+      <c r="N71" s="108"/>
+      <c r="O71" s="108"/>
+      <c r="P71" s="108"/>
+      <c r="Q71" s="108"/>
+      <c r="R71" s="108"/>
+      <c r="S71" s="108"/>
+    </row>
+    <row r="72" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="108"/>
+      <c r="B72" s="108"/>
+      <c r="C72" s="170">
+        <v>1</v>
+      </c>
+      <c r="D72" s="171" t="s">
+        <v>265</v>
+      </c>
+      <c r="E72" s="171">
+        <v>4</v>
+      </c>
+      <c r="F72" s="171" t="s">
+        <v>266</v>
+      </c>
+      <c r="G72" s="172">
+        <v>44280.399016203701</v>
+      </c>
+      <c r="H72" s="173">
+        <v>2</v>
+      </c>
+      <c r="I72" s="108"/>
+      <c r="J72" s="108"/>
+      <c r="K72" s="108"/>
+      <c r="L72" s="108"/>
+      <c r="M72" s="108"/>
+      <c r="N72" s="108"/>
+      <c r="O72" s="108"/>
+      <c r="P72" s="108"/>
+      <c r="Q72" s="108"/>
+      <c r="R72" s="108"/>
+      <c r="S72" s="108"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="108"/>
+      <c r="B73" s="108"/>
+      <c r="C73" s="108"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="108"/>
+      <c r="G73" s="108"/>
+      <c r="H73" s="108"/>
+      <c r="I73" s="108"/>
+      <c r="J73" s="108"/>
+      <c r="K73" s="108"/>
+      <c r="L73" s="108"/>
+      <c r="M73" s="108"/>
+      <c r="N73" s="108"/>
+      <c r="O73" s="108"/>
+      <c r="P73" s="108"/>
+      <c r="Q73" s="108"/>
+      <c r="R73" s="108"/>
+      <c r="S73" s="108"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="108"/>
+      <c r="B74" s="108"/>
+      <c r="C74" s="108"/>
+      <c r="D74" s="108"/>
+      <c r="E74" s="108"/>
+      <c r="F74" s="108"/>
+      <c r="G74" s="108"/>
+      <c r="H74" s="108"/>
+      <c r="I74" s="108"/>
+      <c r="J74" s="108"/>
+      <c r="K74" s="108"/>
+      <c r="L74" s="108"/>
+      <c r="M74" s="108"/>
+      <c r="N74" s="108"/>
+      <c r="O74" s="108"/>
+      <c r="P74" s="108"/>
+      <c r="Q74" s="108"/>
+      <c r="R74" s="108"/>
+      <c r="S74" s="108"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="108"/>
+      <c r="B75" s="108"/>
+      <c r="C75" s="108"/>
+      <c r="D75" s="108"/>
+      <c r="E75" s="108"/>
+      <c r="F75" s="108"/>
+      <c r="G75" s="108"/>
+      <c r="H75" s="108"/>
+      <c r="I75" s="108"/>
+      <c r="J75" s="108"/>
+      <c r="K75" s="108"/>
+      <c r="L75" s="108"/>
+      <c r="M75" s="108"/>
+      <c r="N75" s="108"/>
+      <c r="O75" s="108"/>
+      <c r="P75" s="108"/>
+      <c r="Q75" s="108"/>
+      <c r="R75" s="108"/>
+      <c r="S75" s="108"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="145"/>
+      <c r="B76" s="108" t="s">
+        <v>285</v>
+      </c>
+      <c r="C76" s="108"/>
+      <c r="D76" s="108"/>
+      <c r="E76" s="108"/>
+      <c r="F76" s="108"/>
+      <c r="G76" s="108"/>
+      <c r="H76" s="108"/>
+      <c r="I76" s="108"/>
+      <c r="J76" s="108"/>
+      <c r="K76" s="108"/>
+      <c r="L76" s="108"/>
+      <c r="M76" s="108"/>
+      <c r="N76" s="108"/>
+      <c r="O76" s="108"/>
+      <c r="P76" s="108"/>
+      <c r="Q76" s="108"/>
+      <c r="R76" s="108"/>
+      <c r="S76" s="108"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="140"/>
+      <c r="B77" s="108" t="s">
+        <v>286</v>
+      </c>
+      <c r="C77" s="108"/>
+      <c r="D77" s="108"/>
+      <c r="E77" s="108"/>
+      <c r="F77" s="108"/>
+      <c r="G77" s="108"/>
+      <c r="H77" s="108"/>
+      <c r="I77" s="108"/>
+      <c r="J77" s="108"/>
+      <c r="K77" s="108"/>
+      <c r="L77" s="108"/>
+      <c r="M77" s="108"/>
+      <c r="N77" s="108"/>
+      <c r="O77" s="108"/>
+      <c r="P77" s="108"/>
+      <c r="Q77" s="108"/>
+      <c r="R77" s="108"/>
+      <c r="S77" s="108"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="152"/>
+      <c r="B78" s="108" t="s">
+        <v>287</v>
+      </c>
+      <c r="C78" s="108"/>
+      <c r="D78" s="108"/>
+      <c r="E78" s="108"/>
+      <c r="F78" s="108"/>
+      <c r="G78" s="108"/>
+      <c r="H78" s="108"/>
+      <c r="I78" s="108"/>
+      <c r="J78" s="108"/>
+      <c r="K78" s="108"/>
+      <c r="L78" s="108"/>
+      <c r="M78" s="108"/>
+      <c r="N78" s="108"/>
+      <c r="O78" s="108"/>
+      <c r="P78" s="108"/>
+      <c r="Q78" s="108"/>
+      <c r="R78" s="108"/>
+      <c r="S78" s="108"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="129"/>
+      <c r="B79" s="108" t="s">
+        <v>288</v>
+      </c>
+      <c r="C79" s="108"/>
+      <c r="D79" s="108"/>
+      <c r="E79" s="108"/>
+      <c r="F79" s="108"/>
+      <c r="G79" s="108"/>
+      <c r="H79" s="108"/>
+      <c r="I79" s="108"/>
+      <c r="J79" s="108"/>
+      <c r="K79" s="108"/>
+      <c r="L79" s="108"/>
+      <c r="M79" s="108"/>
+      <c r="N79" s="108"/>
+      <c r="O79" s="108"/>
+      <c r="P79" s="108"/>
+      <c r="Q79" s="108"/>
+      <c r="R79" s="108"/>
+      <c r="S79" s="108"/>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="N51:P51"/>
+    <mergeCell ref="H55:R55"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="K47:P47"/>
+    <mergeCell ref="P27:S27"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="L34:M34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documents/tableau_de_données.xlsx
+++ b/Documents/tableau_de_données.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Developpement_Web\Projet H2NCook\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Developpement_Web\Projet_H2NCook\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire de données" sheetId="1" r:id="rId1"/>
     <sheet name="Exemple de données inserées" sheetId="4" r:id="rId2"/>
     <sheet name="Exemple de données de connexion" sheetId="2" r:id="rId3"/>
-    <sheet name="Exemple de d'application" sheetId="3" r:id="rId4"/>
+    <sheet name="Exemple donnéesde d'application" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="289">
   <si>
     <t>Entités</t>
   </si>
@@ -3128,8 +3128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6116,26 +6116,1102 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="220" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="233" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="234"/>
+      <c r="M1" s="220" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="221"/>
+      <c r="O1" s="221"/>
+      <c r="P1" s="221"/>
+      <c r="Q1" s="222"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="121" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="121" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="121" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="121" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="122" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="108"/>
+      <c r="J2" s="120" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="122" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="120" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="121" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="120">
+        <v>2</v>
+      </c>
+      <c r="B3" s="121" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="121" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="121" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="123">
+        <v>31861.399016203704</v>
+      </c>
+      <c r="F3" s="121" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="121">
+        <v>65421</v>
+      </c>
+      <c r="H3" s="122" t="s">
+        <v>180</v>
+      </c>
+      <c r="I3" s="108"/>
+      <c r="J3" s="120">
+        <v>1</v>
+      </c>
+      <c r="K3" s="122" t="s">
+        <v>263</v>
+      </c>
+      <c r="M3" s="120">
+        <v>1</v>
+      </c>
+      <c r="N3" s="121" t="s">
+        <v>279</v>
+      </c>
+      <c r="O3" s="121" t="s">
+        <v>279</v>
+      </c>
+      <c r="P3" s="121" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q3" s="122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="124">
+        <v>3</v>
+      </c>
+      <c r="B4" s="125" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="125" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="125" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="126">
+        <v>27651.399016203704</v>
+      </c>
+      <c r="F4" s="125" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="125">
+        <v>71950</v>
+      </c>
+      <c r="H4" s="127" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="108"/>
+      <c r="J4" s="124">
+        <v>2</v>
+      </c>
+      <c r="K4" s="127" t="s">
+        <v>264</v>
+      </c>
+      <c r="M4" s="120">
+        <v>2</v>
+      </c>
+      <c r="N4" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="O4" s="121" t="s">
+        <v>281</v>
+      </c>
+      <c r="P4" s="121" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q4" s="122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="124">
+        <v>3</v>
+      </c>
+      <c r="N5" s="125" t="s">
+        <v>283</v>
+      </c>
+      <c r="O5" s="125" t="s">
+        <v>283</v>
+      </c>
+      <c r="P5" s="125" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q5" s="127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="215" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="216"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="216"/>
+      <c r="E7" s="216"/>
+      <c r="F7" s="217"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="167" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="168" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="168" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="168" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="168" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="169" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="170">
+        <v>1</v>
+      </c>
+      <c r="B9" s="171" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="171">
+        <v>4</v>
+      </c>
+      <c r="D9" s="171" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="172">
+        <v>44280.399016203701</v>
+      </c>
+      <c r="F9" s="173">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A7:F7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="218" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="219"/>
+      <c r="G1" s="227" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="228"/>
+      <c r="L1" s="229"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="133" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="140" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="140" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="134" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" s="159" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="160" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" s="160" t="s">
+        <v>224</v>
+      </c>
+      <c r="J2" s="160" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="160" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" s="161" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="133">
+        <v>1</v>
+      </c>
+      <c r="B3" s="140">
+        <v>1</v>
+      </c>
+      <c r="C3" s="140" t="s">
+        <v>254</v>
+      </c>
+      <c r="D3" s="134">
+        <v>3</v>
+      </c>
+      <c r="G3" s="159">
+        <v>1</v>
+      </c>
+      <c r="H3" s="160">
+        <v>1</v>
+      </c>
+      <c r="I3" s="160">
+        <v>20</v>
+      </c>
+      <c r="J3" s="160" t="s">
+        <v>225</v>
+      </c>
+      <c r="K3" s="160">
+        <v>1</v>
+      </c>
+      <c r="L3" s="161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="133">
+        <v>2</v>
+      </c>
+      <c r="B4" s="140">
+        <v>1</v>
+      </c>
+      <c r="C4" s="140" t="s">
+        <v>255</v>
+      </c>
+      <c r="D4" s="134">
+        <v>4</v>
+      </c>
+      <c r="G4" s="159">
+        <v>2</v>
+      </c>
+      <c r="H4" s="160">
+        <v>1</v>
+      </c>
+      <c r="I4" s="160">
+        <v>20</v>
+      </c>
+      <c r="J4" s="160">
+        <v>12</v>
+      </c>
+      <c r="K4" s="160" t="s">
+        <v>225</v>
+      </c>
+      <c r="L4" s="161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="133">
+        <v>3</v>
+      </c>
+      <c r="B5" s="140">
+        <v>1</v>
+      </c>
+      <c r="C5" s="140" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="134">
+        <v>2</v>
+      </c>
+      <c r="G5" s="162">
+        <v>3</v>
+      </c>
+      <c r="H5" s="163">
+        <v>1</v>
+      </c>
+      <c r="I5" s="163" t="s">
+        <v>226</v>
+      </c>
+      <c r="J5" s="163">
+        <v>12</v>
+      </c>
+      <c r="K5" s="163" t="s">
+        <v>225</v>
+      </c>
+      <c r="L5" s="164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="133">
+        <v>4</v>
+      </c>
+      <c r="B6" s="140">
+        <v>1</v>
+      </c>
+      <c r="C6" s="140" t="s">
+        <v>257</v>
+      </c>
+      <c r="D6" s="134">
+        <v>5</v>
+      </c>
+      <c r="O6" s="218" t="s">
+        <v>175</v>
+      </c>
+      <c r="P6" s="219"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="133">
+        <v>5</v>
+      </c>
+      <c r="B7" s="140">
+        <v>3</v>
+      </c>
+      <c r="C7" s="140">
+        <v>10</v>
+      </c>
+      <c r="D7" s="134">
+        <v>1</v>
+      </c>
+      <c r="O7" s="133" t="s">
+        <v>116</v>
+      </c>
+      <c r="P7" s="134" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="133">
+        <v>6</v>
+      </c>
+      <c r="B8" s="140">
+        <v>3</v>
+      </c>
+      <c r="C8" s="140" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="134">
+        <v>4</v>
+      </c>
+      <c r="G8" s="227" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" s="228"/>
+      <c r="I8" s="228"/>
+      <c r="J8" s="228"/>
+      <c r="K8" s="229"/>
+      <c r="O8" s="133">
+        <v>1</v>
+      </c>
+      <c r="P8" s="134" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="133">
+        <v>7</v>
+      </c>
+      <c r="B9" s="140">
+        <v>3</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>255</v>
+      </c>
+      <c r="D9" s="134">
+        <v>2</v>
+      </c>
+      <c r="G9" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" s="129" t="s">
+        <v>151</v>
+      </c>
+      <c r="I9" s="129" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="129" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="130" t="s">
+        <v>77</v>
+      </c>
+      <c r="O9" s="133">
+        <v>2</v>
+      </c>
+      <c r="P9" s="134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="133">
+        <v>8</v>
+      </c>
+      <c r="B10" s="140">
+        <v>3</v>
+      </c>
+      <c r="C10" s="140" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="134">
+        <v>5</v>
+      </c>
+      <c r="G10" s="128">
+        <v>1</v>
+      </c>
+      <c r="H10" s="129">
+        <v>2151357</v>
+      </c>
+      <c r="I10" s="129">
+        <v>2</v>
+      </c>
+      <c r="J10" s="129">
+        <v>1</v>
+      </c>
+      <c r="K10" s="130">
+        <v>1</v>
+      </c>
+      <c r="O10" s="133">
+        <v>3</v>
+      </c>
+      <c r="P10" s="134" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="133">
+        <v>9</v>
+      </c>
+      <c r="B11" s="140">
+        <v>4</v>
+      </c>
+      <c r="C11" s="140">
+        <v>100</v>
+      </c>
+      <c r="D11" s="134">
+        <v>1</v>
+      </c>
+      <c r="G11" s="135">
+        <v>2</v>
+      </c>
+      <c r="H11" s="136">
+        <v>2659892</v>
+      </c>
+      <c r="I11" s="136">
+        <v>3</v>
+      </c>
+      <c r="J11" s="136">
+        <v>2</v>
+      </c>
+      <c r="K11" s="137">
+        <v>2</v>
+      </c>
+      <c r="O11" s="138">
+        <v>4</v>
+      </c>
+      <c r="P11" s="139" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="133">
+        <v>10</v>
+      </c>
+      <c r="B12" s="140">
+        <v>4</v>
+      </c>
+      <c r="C12" s="140">
+        <v>10</v>
+      </c>
+      <c r="D12" s="134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="133">
+        <v>11</v>
+      </c>
+      <c r="B13" s="140">
+        <v>4</v>
+      </c>
+      <c r="C13" s="140" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="134">
+        <v>2</v>
+      </c>
+      <c r="J13" s="218" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="223"/>
+      <c r="L13" s="223"/>
+      <c r="M13" s="223"/>
+      <c r="N13" s="223"/>
+      <c r="O13" s="219"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="133">
+        <v>12</v>
+      </c>
+      <c r="B14" s="140">
+        <v>4</v>
+      </c>
+      <c r="C14" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="134">
+        <v>5</v>
+      </c>
+      <c r="J14" s="133" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="140" t="s">
+        <v>119</v>
+      </c>
+      <c r="M14" s="140" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" s="140" t="s">
+        <v>122</v>
+      </c>
+      <c r="O14" s="134" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="133">
+        <v>13</v>
+      </c>
+      <c r="B15" s="140">
+        <v>2</v>
+      </c>
+      <c r="C15" s="140">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="134">
+        <v>1</v>
+      </c>
+      <c r="J15" s="138">
+        <v>1</v>
+      </c>
+      <c r="K15" s="143" t="s">
+        <v>249</v>
+      </c>
+      <c r="L15" s="143">
+        <v>1</v>
+      </c>
+      <c r="M15" s="143" t="s">
+        <v>250</v>
+      </c>
+      <c r="N15" s="143" t="s">
+        <v>251</v>
+      </c>
+      <c r="O15" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="133">
+        <v>14</v>
+      </c>
+      <c r="B16" s="140">
+        <v>2</v>
+      </c>
+      <c r="C16" s="140">
+        <v>100</v>
+      </c>
+      <c r="D16" s="134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="133">
+        <v>15</v>
+      </c>
+      <c r="B17" s="140">
+        <v>2</v>
+      </c>
+      <c r="C17" s="140">
+        <v>10</v>
+      </c>
+      <c r="D17" s="134">
+        <v>4</v>
+      </c>
+      <c r="G17" s="218" t="s">
+        <v>208</v>
+      </c>
+      <c r="H17" s="223"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="219"/>
+      <c r="L17" s="218" t="s">
+        <v>205</v>
+      </c>
+      <c r="M17" s="223"/>
+      <c r="N17" s="219"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="133">
+        <v>16</v>
+      </c>
+      <c r="B18" s="140">
+        <v>2</v>
+      </c>
+      <c r="C18" s="140" t="s">
+        <v>256</v>
+      </c>
+      <c r="D18" s="134">
+        <v>5</v>
+      </c>
+      <c r="G18" s="153" t="s">
+        <v>206</v>
+      </c>
+      <c r="H18" s="154" t="s">
+        <v>207</v>
+      </c>
+      <c r="I18" s="154" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" s="155" t="s">
+        <v>195</v>
+      </c>
+      <c r="L18" s="133" t="s">
+        <v>195</v>
+      </c>
+      <c r="M18" s="140" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="134" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="133">
+        <v>17</v>
+      </c>
+      <c r="B19" s="140">
+        <v>5</v>
+      </c>
+      <c r="C19" s="140">
+        <v>1000000</v>
+      </c>
+      <c r="D19" s="134">
+        <v>1</v>
+      </c>
+      <c r="G19" s="133">
+        <v>1</v>
+      </c>
+      <c r="H19" s="140">
+        <v>1</v>
+      </c>
+      <c r="I19" s="140">
+        <v>1</v>
+      </c>
+      <c r="J19" s="134">
+        <v>1</v>
+      </c>
+      <c r="L19" s="133">
+        <v>1</v>
+      </c>
+      <c r="M19" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="N19" s="134" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="133">
+        <v>18</v>
+      </c>
+      <c r="B20" s="140">
+        <v>5</v>
+      </c>
+      <c r="C20" s="140">
+        <v>100000</v>
+      </c>
+      <c r="D20" s="134">
+        <v>3</v>
+      </c>
+      <c r="G20" s="133">
+        <v>2</v>
+      </c>
+      <c r="H20" s="140">
+        <v>2</v>
+      </c>
+      <c r="I20" s="140">
+        <v>1</v>
+      </c>
+      <c r="J20" s="134">
+        <v>2</v>
+      </c>
+      <c r="L20" s="133">
+        <v>2</v>
+      </c>
+      <c r="M20" s="140" t="s">
+        <v>199</v>
+      </c>
+      <c r="N20" s="134" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="133">
+        <v>19</v>
+      </c>
+      <c r="B21" s="140">
+        <v>5</v>
+      </c>
+      <c r="C21" s="140">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="134">
+        <v>4</v>
+      </c>
+      <c r="G21" s="133">
+        <v>3</v>
+      </c>
+      <c r="H21" s="140">
+        <v>3</v>
+      </c>
+      <c r="I21" s="140">
+        <v>1</v>
+      </c>
+      <c r="J21" s="134">
+        <v>3</v>
+      </c>
+      <c r="L21" s="133">
+        <v>3</v>
+      </c>
+      <c r="M21" s="140" t="s">
+        <v>201</v>
+      </c>
+      <c r="N21" s="134" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="133">
+        <v>20</v>
+      </c>
+      <c r="B22" s="140">
+        <v>5</v>
+      </c>
+      <c r="C22" s="140">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="134">
+        <v>2</v>
+      </c>
+      <c r="G22" s="138">
+        <v>4</v>
+      </c>
+      <c r="H22" s="143">
+        <v>4</v>
+      </c>
+      <c r="I22" s="143">
+        <v>1</v>
+      </c>
+      <c r="J22" s="139">
+        <v>4</v>
+      </c>
+      <c r="L22" s="138">
+        <v>4</v>
+      </c>
+      <c r="M22" s="143" t="s">
+        <v>203</v>
+      </c>
+      <c r="N22" s="139" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="133">
+        <v>21</v>
+      </c>
+      <c r="B23" s="140">
+        <v>7</v>
+      </c>
+      <c r="C23" s="140" t="s">
+        <v>254</v>
+      </c>
+      <c r="D23" s="134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="133">
+        <v>22</v>
+      </c>
+      <c r="B24" s="140">
+        <v>7</v>
+      </c>
+      <c r="C24" s="140" t="s">
+        <v>255</v>
+      </c>
+      <c r="D24" s="134">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="133">
+        <v>23</v>
+      </c>
+      <c r="B25" s="140">
+        <v>7</v>
+      </c>
+      <c r="C25" s="140" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="133">
+        <v>24</v>
+      </c>
+      <c r="B26" s="140">
+        <v>7</v>
+      </c>
+      <c r="C26" s="140" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="138">
+        <v>25</v>
+      </c>
+      <c r="B27" s="143">
+        <v>8</v>
+      </c>
+      <c r="C27" s="143">
+        <v>10</v>
+      </c>
+      <c r="D27" s="139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G28" s="218" t="s">
+        <v>278</v>
+      </c>
+      <c r="H28" s="219"/>
+      <c r="K28" s="218" t="s">
+        <v>135</v>
+      </c>
+      <c r="L28" s="223"/>
+      <c r="M28" s="219"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G29" s="133" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" s="134" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="133" t="s">
+        <v>137</v>
+      </c>
+      <c r="L29" s="140" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="134" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="133">
+        <v>1</v>
+      </c>
+      <c r="H30" s="134" t="s">
+        <v>268</v>
+      </c>
+      <c r="K30" s="138">
+        <v>1</v>
+      </c>
+      <c r="L30" s="143" t="s">
+        <v>231</v>
+      </c>
+      <c r="M30" s="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G31" s="133">
+        <v>2</v>
+      </c>
+      <c r="H31" s="134" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G32" s="133">
+        <v>3</v>
+      </c>
+      <c r="H32" s="134" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G33" s="133">
+        <v>4</v>
+      </c>
+      <c r="H33" s="134" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G34" s="133">
+        <v>5</v>
+      </c>
+      <c r="H34" s="134" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="133">
+        <v>6</v>
+      </c>
+      <c r="H35" s="134" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G36" s="133">
+        <v>7</v>
+      </c>
+      <c r="H36" s="134" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G37" s="133">
+        <v>8</v>
+      </c>
+      <c r="H37" s="134" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G38" s="133">
+        <v>9</v>
+      </c>
+      <c r="H38" s="134" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="7:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="138">
+        <v>10</v>
+      </c>
+      <c r="H39" s="139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="J13:O13"/>
+    <mergeCell ref="O6:P6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>